--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -777,10 +777,10 @@
         <v>2.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
         <v>1.62</v>
@@ -804,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -828,13 +828,13 @@
         <v>6.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -846,7 +846,7 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -885,7 +885,7 @@
         <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -989,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1007,7 +1007,7 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH3" t="n">
         <v>15</v>
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1049,7 +1049,7 @@
         <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
@@ -1129,10 +1129,10 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1171,7 +1171,7 @@
         <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
@@ -1189,10 +1189,10 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
@@ -1210,7 +1210,7 @@
         <v>1250</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
@@ -1308,13 +1308,13 @@
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1326,13 +1326,13 @@
         <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1359,7 +1359,7 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
         <v>7.5</v>
@@ -1377,7 +1377,7 @@
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
         <v>81</v>
@@ -1407,10 +1407,10 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1431,7 +1431,7 @@
         <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="J7" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L7" t="n">
         <v>4.85</v>
@@ -1681,13 +1681,13 @@
         <v>7.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
         <v>1.7</v>
@@ -1699,52 +1699,52 @@
         <v>2.74</v>
       </c>
       <c r="U7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
         <v>6.3</v>
       </c>
       <c r="X7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF7" t="n">
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="n">
         <v>50</v>
@@ -1756,7 +1756,7 @@
         <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO7" t="n">
         <v>8.25</v>
@@ -1774,7 +1774,7 @@
         <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="AU7" t="n">
         <v>7.2</v>
@@ -1783,7 +1783,7 @@
         <v>65</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
@@ -1839,40 +1839,40 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.18</v>
+        <v>2.62</v>
       </c>
       <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.7</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
         <v>1.42</v>
@@ -1881,106 +1881,106 @@
         <v>2.47</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC8" t="n">
         <v>8.75</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AD8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK8" t="n">
         <v>22</v>
       </c>
-      <c r="AA8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AL8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>60</v>
       </c>
-      <c r="AG8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>40</v>
-      </c>
       <c r="AR8" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AS8" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AV8" t="n">
         <v>50</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="AX8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY8" t="n">
         <v>18</v>
       </c>
-      <c r="AY8" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="BA8" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2168,7 +2168,7 @@
         <v>351</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -2436,7 +2436,7 @@
         <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
@@ -2466,10 +2466,10 @@
         <v>6.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ11" t="n">
         <v>23</v>
@@ -2484,7 +2484,7 @@
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
         <v>19</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="J12" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2597,10 +2597,10 @@
         <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
         <v>1.5</v>
@@ -2615,10 +2615,10 @@
         <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
         <v>13</v>
@@ -2636,7 +2636,7 @@
         <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
@@ -2645,16 +2645,16 @@
         <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI12" t="n">
         <v>9</v>
       </c>
-      <c r="AI12" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
         <v>19</v>
@@ -2666,19 +2666,19 @@
         <v>351</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP12" t="n">
         <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS12" t="n">
         <v>301</v>
@@ -2687,19 +2687,19 @@
         <v>2.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>41</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K13" t="n">
         <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2797,10 +2797,10 @@
         <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2857,7 +2857,7 @@
         <v>34</v>
       </c>
       <c r="AQ13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR13" t="n">
         <v>101</v>
@@ -3113,7 +3113,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
@@ -3128,13 +3128,13 @@
         <v>1.95</v>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.5</v>
@@ -3170,10 +3170,10 @@
         <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
@@ -3191,16 +3191,16 @@
         <v>101</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK15" t="n">
         <v>51</v>
@@ -3677,16 +3677,16 @@
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q18" t="n">
         <v>2.35</v>
@@ -3877,10 +3877,10 @@
         <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U19" t="n">
         <v>1.83</v>
@@ -3946,7 +3946,7 @@
         <v>17</v>
       </c>
       <c r="AP19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ19" t="n">
         <v>51</v>
@@ -3958,7 +3958,7 @@
         <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
         <v>8.5</v>
@@ -4047,10 +4047,10 @@
         <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q20" t="n">
         <v>2.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.57</v>
@@ -825,7 +825,7 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -888,7 +888,7 @@
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -947,10 +947,10 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
@@ -1577,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
@@ -1589,7 +1589,7 @@
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.75</v>
@@ -1657,46 +1657,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.65</v>
+        <v>4.35</v>
       </c>
       <c r="J7" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.85</v>
+        <v>4.6</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="T7" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="U7" t="n">
         <v>1.83</v>
@@ -1705,31 +1705,31 @@
         <v>1.78</v>
       </c>
       <c r="W7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X7" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="n">
         <v>8.75</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF7" t="n">
         <v>80</v>
@@ -1738,67 +1738,67 @@
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL7" t="n">
         <v>50</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>55</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AR7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ7" t="n">
         <v>150</v>
       </c>
       <c r="BA7" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB7" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I8" t="n">
-        <v>2.67</v>
+        <v>2.52</v>
       </c>
       <c r="J8" t="n">
         <v>3.2</v>
@@ -1854,13 +1854,13 @@
         <v>2.07</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.31</v>
@@ -1869,7 +1869,7 @@
         <v>2.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
         <v>1.75</v>
@@ -1887,97 +1887,97 @@
         <v>1.98</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
         <v>23</v>
       </c>
       <c r="AB8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH8" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>14.5</v>
       </c>
       <c r="AI8" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM8" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO8" t="n">
         <v>14</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ8" t="n">
         <v>60</v>
       </c>
       <c r="AR8" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV8" t="n">
         <v>50</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
         <v>55</v>
       </c>
       <c r="BA8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB8" t="n">
         <v>200</v>
@@ -2036,7 +2036,7 @@
         <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2057,16 +2057,16 @@
         <v>2.15</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W9" t="n">
         <v>10</v>
@@ -2081,13 +2081,13 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
         <v>7</v>
@@ -2099,31 +2099,31 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>126</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
         <v>19</v>
@@ -2135,13 +2135,13 @@
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
         <v>41</v>
@@ -2150,16 +2150,16 @@
         <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
         <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
         <v>126</v>
@@ -2168,7 +2168,7 @@
         <v>351</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -2206,10 +2206,10 @@
         <v>2.15</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>2.75</v>
@@ -2293,7 +2293,7 @@
         <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
@@ -2305,7 +2305,7 @@
         <v>4.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
@@ -2403,10 +2403,10 @@
         <v>3.25</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -2415,10 +2415,10 @@
         <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
         <v>1.57</v>
@@ -2436,7 +2436,7 @@
         <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
@@ -2457,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
         <v>67</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
@@ -2582,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2615,10 +2615,10 @@
         <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
         <v>13</v>
@@ -2666,7 +2666,7 @@
         <v>351</v>
       </c>
       <c r="AN12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO12" t="n">
         <v>23</v>
@@ -2779,10 +2779,10 @@
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>
@@ -2961,10 +2961,10 @@
         <v>3.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -3295,16 +3295,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
@@ -3337,19 +3337,19 @@
         <v>3.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
         <v>17</v>
@@ -3385,16 +3385,16 @@
         <v>41</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
         <v>10</v>
@@ -3418,7 +3418,7 @@
         <v>7.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW16" t="n">
         <v>5.5</v>
@@ -3677,10 +3677,10 @@
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
         <v>1.4</v>
@@ -3695,10 +3695,10 @@
         <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U18" t="n">
         <v>2.1</v>
@@ -3707,10 +3707,10 @@
         <v>1.67</v>
       </c>
       <c r="W18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
@@ -3773,13 +3773,13 @@
         <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>67</v>
@@ -3862,7 +3862,7 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -4047,10 +4047,10 @@
         <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="n">
         <v>2.5</v>
@@ -4387,46 +4387,46 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L22" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>6.3</v>
+        <v>6.45</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="Q22" t="n">
         <v>2.05</v>
       </c>
       <c r="R22" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
         <v>1.42</v>
       </c>
       <c r="T22" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="U22" t="n">
         <v>1.87</v>
@@ -4435,19 +4435,19 @@
         <v>1.75</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Z22" t="n">
         <v>40</v>
       </c>
       <c r="AA22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB22" t="n">
         <v>45</v>
@@ -4465,19 +4465,19 @@
         <v>90</v>
       </c>
       <c r="AG22" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AH22" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI22" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL22" t="n">
         <v>35</v>
@@ -4486,10 +4486,10 @@
         <v>800</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AP22" t="n">
         <v>27</v>
@@ -4504,28 +4504,28 @@
         <v>400</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA22" t="n">
         <v>80</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>90</v>
       </c>
       <c r="BB22" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD22"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.57</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
@@ -947,10 +947,10 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -989,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1007,7 +1007,7 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
         <v>15</v>
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1049,7 +1049,7 @@
         <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
@@ -1293,40 +1293,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="J5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K5" t="n">
         <v>2.1</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1335,34 +1335,34 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
         <v>6.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1371,16 +1371,16 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="n">
         <v>51</v>
@@ -1392,16 +1392,16 @@
         <v>1250</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1419,19 +1419,19 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA5" t="n">
         <v>151</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>201</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
         <v>2.88</v>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1577,7 +1577,7 @@
         <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
@@ -1589,7 +1589,7 @@
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>2.75</v>
@@ -1657,148 +1657,148 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>4.35</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>4.6</v>
+        <v>4.85</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
         <v>6.2</v>
       </c>
       <c r="X7" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA7" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AB7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF7" t="n">
         <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AK7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AP7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AR7" t="n">
         <v>60</v>
       </c>
       <c r="AS7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AV7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AX7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AZ7" t="n">
         <v>150</v>
       </c>
       <c r="BA7" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB7" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="H8" t="n">
         <v>3.05</v>
       </c>
       <c r="I8" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1881,16 +1881,16 @@
         <v>2.47</v>
       </c>
       <c r="U8" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W8" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.75</v>
@@ -1899,7 +1899,7 @@
         <v>32</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB8" t="n">
         <v>30</v>
@@ -1908,7 +1908,7 @@
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1917,19 +1917,19 @@
         <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
         <v>30</v>
@@ -1938,13 +1938,13 @@
         <v>450</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AO8" t="n">
         <v>14</v>
       </c>
       <c r="AP8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>60</v>
@@ -1956,7 +1956,7 @@
         <v>200</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AU8" t="n">
         <v>6.4</v>
@@ -1965,10 +1965,10 @@
         <v>50</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY8" t="n">
         <v>19</v>
@@ -2051,10 +2051,10 @@
         <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>2.75</v>
@@ -2257,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
         <v>21</v>
@@ -2266,7 +2266,7 @@
         <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
         <v>15</v>
@@ -2293,7 +2293,7 @@
         <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
@@ -2305,7 +2305,7 @@
         <v>4.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
@@ -2329,10 +2329,10 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
@@ -2341,7 +2341,7 @@
         <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
         <v>126</v>
@@ -2403,10 +2403,10 @@
         <v>3.25</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2797,10 +2797,10 @@
         <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2857,7 +2857,7 @@
         <v>34</v>
       </c>
       <c r="AQ13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR13" t="n">
         <v>101</v>
@@ -3131,10 +3131,10 @@
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
         <v>1.5</v>
@@ -3295,22 +3295,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K16" t="n">
         <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -3346,16 +3346,16 @@
         <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB16" t="n">
         <v>21</v>
@@ -3367,19 +3367,19 @@
         <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>41</v>
@@ -3397,19 +3397,19 @@
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP16" t="n">
         <v>19</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR16" t="n">
         <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT16" t="n">
         <v>3.25</v>
@@ -3421,19 +3421,19 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB16" t="n">
         <v>151</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>2.88</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>1.83</v>
       </c>
       <c r="L17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.13</v>
@@ -3513,10 +3513,10 @@
         <v>1.4</v>
       </c>
       <c r="S17" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="n">
         <v>2.25</v>
@@ -3531,16 +3531,16 @@
         <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC17" t="n">
         <v>5.5</v>
@@ -3561,7 +3561,7 @@
         <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
         <v>26</v>
@@ -3594,7 +3594,7 @@
         <v>351</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU17" t="n">
         <v>9.5</v>
@@ -3603,7 +3603,7 @@
         <v>81</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX17" t="n">
         <v>17</v>
@@ -3841,16 +3841,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
         <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
@@ -3862,7 +3862,7 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3922,7 +3922,7 @@
         <v>7.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>10</v>
@@ -4205,16 +4205,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I21" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K21" t="n">
         <v>2.2</v>
@@ -4271,19 +4271,19 @@
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
         <v>34</v>
@@ -4304,7 +4304,7 @@
         <v>201</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO21" t="n">
         <v>7.5</v>
@@ -4331,7 +4331,7 @@
         <v>81</v>
       </c>
       <c r="AW21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX21" t="n">
         <v>41</v>
@@ -4340,10 +4340,10 @@
         <v>41</v>
       </c>
       <c r="AZ21" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA21" t="n">
         <v>201</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>251</v>
       </c>
       <c r="BB21" t="n">
         <v>501</v>
@@ -4358,174 +4358,174 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ANuASNdn</t>
+          <t>82eFhJGa</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>17/11/2024</t>
+          <t>16/11/2024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>La Guaira</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.07</v>
+        <v>3.55</v>
       </c>
       <c r="J22" t="n">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="K22" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="L22" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>6.45</v>
+        <v>7.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="P22" t="n">
-        <v>2.67</v>
+        <v>3.55</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.62</v>
       </c>
-      <c r="S22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.87</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="W22" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>10.25</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z22" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="AA22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL22" t="n">
         <v>32</v>
       </c>
-      <c r="AB22" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>35</v>
-      </c>
       <c r="AM22" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="AN22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AR22" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AS22" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.45</v>
+        <v>2.85</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV22" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AW22" t="n">
-        <v>3.85</v>
+        <v>5.6</v>
       </c>
       <c r="AX22" t="n">
-        <v>10.75</v>
+        <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ22" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="BA22" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="BB22" t="n">
         <v>300</v>
@@ -4534,6 +4534,188 @@
         <v>51</v>
       </c>
       <c r="BD22" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ANuASNdn</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>La Guaira</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD23" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
         <v>2.88</v>
@@ -980,22 +980,22 @@
         <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1022,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>26</v>
@@ -1058,7 +1058,7 @@
         <v>4.33</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
         <v>21</v>
@@ -1114,16 +1114,16 @@
         <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
         <v>3.6</v>
@@ -1153,13 +1153,13 @@
         <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
@@ -1189,7 +1189,7 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
         <v>12</v>
@@ -1252,7 +1252,7 @@
         <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
         <v>351</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4j4zCbVN</t>
+          <t>4vIbqhgd</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,65 +1456,65 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
         <v>3.25</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="Q6" t="n">
         <v>2.05</v>
       </c>
-      <c r="L6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
         <v>1.83</v>
@@ -1523,28 +1523,28 @@
         <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
         <v>29</v>
       </c>
-      <c r="AA6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
@@ -1556,43 +1556,43 @@
         <v>301</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
         <v>11</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK6" t="n">
+      <c r="AP6" t="n">
         <v>23</v>
       </c>
-      <c r="AL6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
         <v>51</v>
       </c>
-      <c r="AR6" t="n">
-        <v>81</v>
-      </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
         <v>8.5</v>
@@ -1601,27 +1601,391 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>b1wYci8k</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4j4zCbVN</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
         <v>4.5</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX8" t="n">
         <v>15</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY8" t="n">
         <v>26</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ8" t="n">
         <v>51</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA8" t="n">
         <v>81</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB8" t="n">
         <v>201</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC8" t="n">
         <v>51</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1344,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
@@ -1359,7 +1359,7 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1383,7 +1383,7 @@
         <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
         <v>21</v>
@@ -1407,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -971,10 +971,10 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W3" t="n">
         <v>10</v>
@@ -992,10 +992,10 @@
         <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1010,13 +1010,13 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
@@ -1034,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
@@ -1049,7 +1049,7 @@
         <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1663,7 +1663,7 @@
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.4</v>
@@ -1687,10 +1687,10 @@
         <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
         <v>1.57</v>
@@ -1705,7 +1705,7 @@
         <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X7" t="n">
         <v>6.5</v>
@@ -1717,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1729,7 +1729,7 @@
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
         <v>101</v>
@@ -1753,7 +1753,7 @@
         <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN7" t="n">
         <v>3.4</v>
@@ -1762,7 +1762,7 @@
         <v>9.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -765,22 +765,22 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>02:03</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -971,10 +971,10 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>10</v>
@@ -992,10 +992,10 @@
         <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1010,13 +1010,13 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
@@ -1034,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
@@ -1049,7 +1049,7 @@
         <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1657,52 +1657,52 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
         <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
         <v>4.75</v>
@@ -1711,10 +1711,10 @@
         <v>6.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
         <v>19</v>
@@ -1723,7 +1723,7 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
@@ -1738,10 +1738,10 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>19</v>
@@ -1759,7 +1759,7 @@
         <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1771,16 +1771,16 @@
         <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW7" t="n">
         <v>7</v>
@@ -1789,13 +1789,13 @@
         <v>34</v>
       </c>
       <c r="AY7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ7" t="n">
         <v>151</v>
       </c>
       <c r="BA7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB7" t="n">
         <v>501</v>
@@ -1860,7 +1860,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -971,13 +971,13 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -986,16 +986,16 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1010,16 +1010,16 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>19</v>
@@ -1028,19 +1028,19 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
@@ -1049,25 +1049,25 @@
         <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX3" t="n">
         <v>13</v>
       </c>
       <c r="AY3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>
       </c>
       <c r="BA3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>
@@ -1135,16 +1135,16 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.5</v>
@@ -1675,10 +1675,10 @@
         <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
@@ -1705,7 +1705,7 @@
         <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="X7" t="n">
         <v>6.5</v>
@@ -1732,7 +1732,7 @@
         <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
@@ -1741,10 +1741,10 @@
         <v>9.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
         <v>67</v>
@@ -1759,7 +1759,7 @@
         <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1768,7 +1768,7 @@
         <v>34</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>351</v>
@@ -1786,7 +1786,7 @@
         <v>7</v>
       </c>
       <c r="AX7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY7" t="n">
         <v>51</v>
@@ -1860,7 +1860,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1875,10 +1875,10 @@
         <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
         <v>1.83</v>
@@ -1923,7 +1923,7 @@
         <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
         <v>10</v>
@@ -1956,7 +1956,7 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
@@ -1977,7 +1977,7 @@
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
         <v>2.45</v>
@@ -941,7 +941,7 @@
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
         <v>3.1</v>
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1025,7 +1025,7 @@
         <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN3" t="n">
         <v>4.75</v>
@@ -1135,16 +1135,16 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1887,10 +1887,10 @@
         <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
@@ -1899,7 +1899,7 @@
         <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
         <v>34</v>
@@ -1923,10 +1923,10 @@
         <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
         <v>23</v>
@@ -1938,7 +1938,7 @@
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
         <v>17</v>
@@ -1965,16 +1965,16 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -789,10 +789,10 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -837,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
@@ -861,16 +861,16 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -882,13 +882,13 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>81</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>nP2aHHPH</t>
+          <t>lfbbVm5m</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,161 +910,161 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>02:03</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kashima Antlers</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R3" t="n">
         <v>2.1</v>
       </c>
-      <c r="L3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.9</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="W3" t="n">
         <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
         <v>23</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
         <v>51</v>
       </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
         <v>67</v>
@@ -1073,16 +1073,16 @@
         <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lfbbVm5m</t>
+          <t>67jpeTqR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,41 +1092,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1141,10 +1141,10 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1153,19 +1153,19 @@
         <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
+        <v>10</v>
+      </c>
+      <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>21</v>
@@ -1189,7 +1189,7 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH4" t="n">
         <v>12</v>
@@ -1198,22 +1198,22 @@
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>12</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
@@ -1237,34 +1237,34 @@
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
         <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
         <v>151</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>67jpeTqR</t>
+          <t>4vIbqhgd</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,131 +1274,131 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
       </c>
       <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
         <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
@@ -1407,46 +1407,46 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4vIbqhgd</t>
+          <t>b1wYci8k</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.63</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="V6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W6" t="n">
         <v>4.5</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="X6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y6" t="n">
         <v>10</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="Z6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD6" t="n">
         <v>7</v>
       </c>
-      <c r="X6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AE6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP6" t="n">
         <v>29</v>
       </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AQ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY6" t="n">
         <v>51</v>
       </c>
-      <c r="AG6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
+      <c r="AZ6" t="n">
         <v>151</v>
       </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>81</v>
-      </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>b1wYci8k</t>
+          <t>rPTkoEOq</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,160 +1648,160 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.57</v>
       </c>
-      <c r="P7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.7</v>
-      </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>2.35</v>
       </c>
       <c r="S7" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>2.38</v>
       </c>
       <c r="W7" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
         <v>13</v>
       </c>
-      <c r="AA7" t="n">
-        <v>19</v>
-      </c>
       <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
         <v>41</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
         <v>6</v>
       </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AX7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
         <v>126</v>
       </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS7" t="n">
+      <c r="BC7" t="n">
         <v>351</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>81</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4j4zCbVN</t>
+          <t>Ay5p7eo3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,172 +1820,354 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I8" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="J8" t="n">
         <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.67</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
         <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4j4zCbVN</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK9" t="n">
         <v>23</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL9" t="n">
         <v>21</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM9" t="n">
         <v>34</v>
       </c>
-      <c r="AN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO8" t="n">
+      <c r="AN9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO9" t="n">
         <v>17</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP9" t="n">
         <v>29</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ9" t="n">
         <v>51</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR9" t="n">
         <v>81</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS9" t="n">
         <v>201</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT9" t="n">
         <v>2.63</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU9" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV9" t="n">
         <v>51</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW9" t="n">
         <v>4.33</v>
       </c>
-      <c r="AX8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY8" t="n">
+      <c r="AX9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY9" t="n">
         <v>26</v>
       </c>
-      <c r="AZ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA8" t="n">
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
         <v>67</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB9" t="n">
         <v>201</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC9" t="n">
         <v>51</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD9" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
         <v>2.5</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lfbbVm5m</t>
+          <t>M7QCc5bd</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.22</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>4.85</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z3" t="n">
         <v>13</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="AA3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
         <v>9</v>
       </c>
-      <c r="Z3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>13</v>
-      </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="n">
-        <v>151</v>
+        <v>700</v>
       </c>
       <c r="AH3" t="n">
         <v>12</v>
       </c>
       <c r="AI3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP3" t="n">
         <v>17</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AR3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC3" t="n">
         <v>51</v>
       </c>
-      <c r="AS3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ3" t="n">
+      <c r="BD3" t="n">
         <v>51</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>67jpeTqR</t>
+          <t>lfbbVm5m</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,41 +1092,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1141,10 +1141,10 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1159,13 +1159,13 @@
         <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>21</v>
@@ -1189,7 +1189,7 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
         <v>12</v>
@@ -1201,16 +1201,16 @@
         <v>11</v>
       </c>
       <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM4" t="n">
         <v>29</v>
       </c>
-      <c r="AL4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>26</v>
-      </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
@@ -1240,31 +1240,31 @@
         <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
         <v>51</v>
       </c>
       <c r="BA4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD4" t="n">
         <v>126</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4vIbqhgd</t>
+          <t>67jpeTqR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,131 +1274,131 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W5" t="n">
         <v>10</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7</v>
-      </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
       </c>
       <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="n">
         <v>29</v>
       </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP5" t="n">
         <v>19</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
@@ -1407,46 +1407,46 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
         <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>b1wYci8k</t>
+          <t>4vIbqhgd</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1466,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
         <v>5.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ6" t="n">
+      <c r="AX6" t="n">
         <v>21</v>
       </c>
-      <c r="AK6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP6" t="n">
+      <c r="AY6" t="n">
         <v>29</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR6" t="n">
+      <c r="AZ6" t="n">
         <v>81</v>
       </c>
-      <c r="AS6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV6" t="n">
+      <c r="BA6" t="n">
         <v>101</v>
       </c>
-      <c r="AW6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
         <v>251</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>501</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rPTkoEOq</t>
+          <t>b1wYci8k</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,160 +1648,160 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>2.7</v>
       </c>
       <c r="R7" t="n">
-        <v>2.35</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>2.63</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y7" t="n">
         <v>10</v>
       </c>
-      <c r="X7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>21</v>
       </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AK7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>34</v>
       </c>
-      <c r="AG7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX7" t="n">
         <v>41</v>
       </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>21</v>
-      </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ay5p7eo3</t>
+          <t>rPTkoEOq</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,160 +1830,160 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="K8" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T8" t="n">
         <v>3.5</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA8" t="n">
         <v>13</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>12</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AF8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
         <v>29</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AM8" t="n">
         <v>29</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
         <v>41</v>
       </c>
-      <c r="AC8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AS8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="n">
         <v>6</v>
       </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AX8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>67</v>
       </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="BA8" t="n">
         <v>67</v>
       </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>101</v>
-      </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD8" t="n">
         <v>81</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4j4zCbVN</t>
+          <t>Ay5p7eo3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,172 +2002,354 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I9" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.67</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
         <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI9" t="n">
         <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
         <v>4.75</v>
       </c>
       <c r="AO9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX9" t="n">
         <v>17</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AY9" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>51</v>
       </c>
       <c r="BA9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4j4zCbVN</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
         <v>67</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB10" t="n">
         <v>201</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC10" t="n">
         <v>51</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="J3" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="n">
         <v>2.15</v>
       </c>
       <c r="L3" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -959,7 +959,7 @@
         <v>2.87</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
         <v>1.7</v>
@@ -977,16 +977,16 @@
         <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y3" t="n">
         <v>8.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA3" t="n">
         <v>14.5</v>
@@ -1010,16 +1010,16 @@
         <v>700</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="n">
         <v>50</v>
@@ -1034,16 +1034,16 @@
         <v>8.25</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR3" t="n">
         <v>60</v>
       </c>
       <c r="AS3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT3" t="n">
         <v>2.72</v>
@@ -1055,7 +1055,7 @@
         <v>65</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AX3" t="n">
         <v>26</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.5</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J4" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1153,28 +1153,28 @@
         <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
         <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
         <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
@@ -1192,19 +1192,19 @@
         <v>151</v>
       </c>
       <c r="AH4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>12</v>
       </c>
-      <c r="AI4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
         <v>29</v>
@@ -1213,19 +1213,19 @@
         <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT4" t="n">
         <v>3.25</v>
@@ -1237,10 +1237,10 @@
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>23</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
@@ -1687,10 +1687,10 @@
         <v>2.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
         <v>1.62</v>
@@ -1708,13 +1708,13 @@
         <v>4.5</v>
       </c>
       <c r="X7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
         <v>19</v>
@@ -1726,10 +1726,10 @@
         <v>6</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF7" t="n">
         <v>126</v>
@@ -1783,7 +1783,7 @@
         <v>101</v>
       </c>
       <c r="AW7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX7" t="n">
         <v>41</v>
@@ -1792,10 +1792,10 @@
         <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB7" t="n">
         <v>501</v>
@@ -2039,10 +2039,10 @@
         <v>3.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2251,7 +2251,7 @@
         <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -2263,7 +2263,7 @@
         <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2272,7 +2272,7 @@
         <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2287,13 +2287,13 @@
         <v>7.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
         <v>10</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>21</v>
@@ -2308,7 +2308,7 @@
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -2329,7 +2329,7 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX10" t="n">
         <v>15</v>
@@ -2341,7 +2341,7 @@
         <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -750,52 +750,52 @@
         <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.57</v>
       </c>
-      <c r="T2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>9.5</v>
@@ -807,28 +807,28 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -837,19 +837,19 @@
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -861,16 +861,16 @@
         <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
@@ -879,16 +879,16 @@
         <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>81</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
@@ -1153,10 +1153,10 @@
         <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
         <v>9.5</v>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
@@ -1195,16 +1195,16 @@
         <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>29</v>
@@ -1225,7 +1225,7 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
         <v>3.25</v>
@@ -1240,7 +1240,7 @@
         <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
         <v>23</v>
@@ -1258,7 +1258,7 @@
         <v>351</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
@@ -1493,10 +1493,10 @@
         <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1526,13 +1526,13 @@
         <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>17</v>
@@ -1559,10 +1559,10 @@
         <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
@@ -1574,16 +1574,16 @@
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1601,13 +1601,13 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
         <v>81</v>
@@ -1675,16 +1675,16 @@
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
         <v>2.88</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2251,10 +2251,10 @@
         <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -2263,7 +2263,7 @@
         <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2272,7 +2272,7 @@
         <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2287,13 +2287,13 @@
         <v>7.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
         <v>21</v>
@@ -2302,13 +2302,13 @@
         <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -2329,19 +2329,19 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
         <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,7 +750,7 @@
         <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
         <v>3.5</v>
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.57</v>
@@ -777,10 +777,10 @@
         <v>2.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
         <v>1.62</v>
@@ -801,7 +801,7 @@
         <v>9.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -852,13 +852,13 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
         <v>351</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M7QCc5bd</t>
+          <t>hxzEOZ0J</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.72</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>4.65</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
         <v>29</v>
       </c>
-      <c r="AC3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
         <v>26</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lfbbVm5m</t>
+          <t>f1bLNB0J</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>151</v>
+        <v>1250</v>
       </c>
       <c r="AH4" t="n">
         <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP4" t="n">
         <v>23</v>
       </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AX4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY4" t="n">
         <v>41</v>
       </c>
-      <c r="AW4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>67jpeTqR</t>
+          <t>M7QCc5bd</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>1.72</v>
       </c>
       <c r="H5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN5" t="n">
         <v>3.5</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W5" t="n">
-        <v>10</v>
-      </c>
-      <c r="X5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM5" t="n">
+      <c r="AO5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AX5" t="n">
         <v>26</v>
       </c>
-      <c r="AN5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR5" t="n">
+      <c r="AY5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="AS5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ5" t="n">
+      <c r="BD5" t="n">
         <v>51</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4vIbqhgd</t>
+          <t>lfbbVm5m</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,131 +1456,131 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
         <v>2.6</v>
       </c>
       <c r="K6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R6" t="n">
         <v>2.1</v>
       </c>
-      <c r="L6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="S6" t="n">
         <v>1.33</v>
       </c>
-      <c r="P6" t="n">
+      <c r="T6" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
         <v>15</v>
       </c>
-      <c r="AA6" t="n">
-        <v>17</v>
-      </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>34</v>
@@ -1589,46 +1589,46 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB6" t="n">
         <v>151</v>
       </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>251</v>
-      </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>b1wYci8k</t>
+          <t>67jpeTqR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.67</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
         <v>7</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN7" t="n">
         <v>4.5</v>
       </c>
-      <c r="X7" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AO7" t="n">
         <v>12</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AP7" t="n">
         <v>19</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AQ7" t="n">
         <v>41</v>
       </c>
-      <c r="AC7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU7" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB7" t="n">
         <v>126</v>
       </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>501</v>
-      </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rPTkoEOq</t>
+          <t>4vIbqhgd</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,100 +1830,100 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.75</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>15</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.3</v>
-      </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
         <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
         <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>23</v>
       </c>
       <c r="AJ8" t="n">
         <v>15</v>
@@ -1932,58 +1932,58 @@
         <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
         <v>81</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ay5p7eo3</t>
+          <t>b1wYci8k</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,31 +2012,31 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.63</v>
+        <v>5.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="n">
         <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
@@ -2045,124 +2045,124 @@
         <v>6.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
         <v>12</v>
       </c>
-      <c r="Z9" t="n">
-        <v>29</v>
-      </c>
       <c r="AA9" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU9" t="n">
         <v>11</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM9" t="n">
+      <c r="AV9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX9" t="n">
         <v>41</v>
       </c>
-      <c r="AN9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS9" t="n">
+      <c r="AY9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA9" t="n">
         <v>301</v>
       </c>
-      <c r="AT9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>101</v>
-      </c>
       <c r="BB9" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4j4zCbVN</t>
+          <t>rPTkoEOq</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,172 +2184,536 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.38</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="W10" t="n">
+        <v>10</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
         <v>8.5</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>15</v>
       </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
         <v>29</v>
       </c>
-      <c r="AA10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
         <v>6</v>
       </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK10" t="n">
+      <c r="AX10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY10" t="n">
         <v>23</v>
       </c>
-      <c r="AL10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ10" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
         <v>67</v>
       </c>
       <c r="BB10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ay5p7eo3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
         <v>201</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="AH11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>51</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BA11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4j4zCbVN</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD12" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,10 +771,10 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
         <v>2.88</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
@@ -1132,7 +1132,7 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1177,10 +1177,10 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1213,13 +1213,13 @@
         <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1231,7 +1231,7 @@
         <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1505,10 +1505,10 @@
         <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1523,16 +1523,16 @@
         <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1547,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1562,7 +1562,7 @@
         <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
@@ -1574,10 +1574,10 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>19</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
@@ -1857,10 +1857,10 @@
         <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1890,13 +1890,13 @@
         <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1923,10 +1923,10 @@
         <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
@@ -1938,16 +1938,16 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1965,13 +1965,13 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>81</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -2400,13 +2400,13 @@
         <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -2442,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
         <v>29</v>
@@ -2511,10 +2511,10 @@
         <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY11" t="n">
         <v>29</v>
@@ -2523,7 +2523,7 @@
         <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
         <v>301</v>
@@ -2714,6 +2714,188 @@
         <v>51</v>
       </c>
       <c r="BD12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0Mk66xgo</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD13" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
@@ -765,10 +765,10 @@
         <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.62</v>
@@ -783,16 +783,16 @@
         <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
@@ -804,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -828,7 +828,7 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -846,7 +846,7 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -864,10 +864,10 @@
         <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1153,22 +1153,22 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
@@ -1177,28 +1177,28 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
         <v>1250</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1213,7 +1213,7 @@
         <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1234,10 +1234,10 @@
         <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
@@ -1246,10 +1246,10 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA4" t="n">
         <v>151</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -1293,79 +1293,79 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="K5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="T5" t="n">
-        <v>2.74</v>
+        <v>2.57</v>
       </c>
       <c r="U5" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="X5" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.25</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AE5" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF5" t="n">
         <v>80</v>
@@ -1374,55 +1374,55 @@
         <v>700</v>
       </c>
       <c r="AH5" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM5" t="n">
         <v>50</v>
       </c>
-      <c r="AM5" t="n">
-        <v>55</v>
-      </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AR5" t="n">
         <v>60</v>
       </c>
       <c r="AS5" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AV5" t="n">
         <v>65</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
         <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1517,22 +1517,22 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
         <v>9</v>
       </c>
-      <c r="X6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1547,37 +1547,37 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH6" t="n">
         <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>19</v>
@@ -1604,7 +1604,7 @@
         <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
         <v>23</v>
@@ -2233,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S10" t="n">
         <v>1.29</v>
@@ -2388,49 +2388,49 @@
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
         <v>2.55</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
         <v>7</v>
@@ -2451,7 +2451,7 @@
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -2460,7 +2460,7 @@
         <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
@@ -2499,13 +2499,13 @@
         <v>101</v>
       </c>
       <c r="AS11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
         <v>81</v>
@@ -2514,16 +2514,16 @@
         <v>4.33</v>
       </c>
       <c r="AX11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
         <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
         <v>301</v>
@@ -2773,10 +2773,10 @@
         <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q13" t="n">
         <v>2.7</v>
@@ -2791,10 +2791,10 @@
         <v>2.2</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W13" t="n">
         <v>6</v>
@@ -2821,7 +2821,7 @@
         <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>81</v>
@@ -2830,7 +2830,7 @@
         <v>1250</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2887,7 +2887,7 @@
         <v>67</v>
       </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB13" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1565,10 +1565,10 @@
         <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4vIbqhgd</t>
+          <t>4MhaUsOk</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J8" t="n">
         <v>4</v>
       </c>
-      <c r="J8" t="n">
-        <v>2.63</v>
-      </c>
       <c r="K8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.1</v>
       </c>
-      <c r="L8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="V8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>10</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="AJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
         <v>9</v>
       </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX8" t="n">
         <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
       </c>
       <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
         <v>81</v>
       </c>
-      <c r="BA8" t="n">
-        <v>101</v>
-      </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>b1wYci8k</t>
+          <t>8j7TZ30S</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.67</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD9" t="n">
         <v>7</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
         <v>6</v>
       </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AI9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
         <v>6</v>
       </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AO9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR9" t="n">
         <v>126</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AS9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
         <v>201</v>
       </c>
-      <c r="AH9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="BC9" t="n">
         <v>51</v>
       </c>
-      <c r="AM9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY9" t="n">
+      <c r="BD9" t="n">
         <v>51</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rPTkoEOq</t>
+          <t>CODKyQVF</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>1.95</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
         <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AH10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK10" t="n">
         <v>17</v>
       </c>
-      <c r="AI10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AM10" t="n">
         <v>29</v>
       </c>
       <c r="AN10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
         <v>4</v>
       </c>
-      <c r="AO10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>6</v>
-      </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
         <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
         <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ay5p7eo3</t>
+          <t>4vIbqhgd</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,157 +2376,157 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="R11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.44</v>
       </c>
-      <c r="S11" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
         <v>7</v>
       </c>
       <c r="X11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>13</v>
       </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
         <v>34</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY11" t="n">
         <v>29</v>
       </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AZ11" t="n">
         <v>81</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
       </c>
       <c r="BA11" t="n">
         <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4j4zCbVN</t>
+          <t>b1wYci8k</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN12" t="n">
         <v>3.25</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ12" t="n">
+      <c r="AO12" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>17</v>
       </c>
       <c r="AP12" t="n">
         <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
         <v>81</v>
       </c>
       <c r="AS12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>201</v>
       </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>41</v>
-      </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0Mk66xgo</t>
+          <t>rPTkoEOq</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,172 +2730,900 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="J13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T13" t="n">
         <v>3.5</v>
       </c>
-      <c r="K13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U13" t="n">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="V13" t="n">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>1250</v>
+        <v>126</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="n">
         <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP13" t="n">
         <v>17</v>
       </c>
-      <c r="AP13" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AR13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="n">
         <v>101</v>
       </c>
-      <c r="AS13" t="n">
-        <v>351</v>
-      </c>
       <c r="AT13" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
         <v>67</v>
       </c>
       <c r="BA13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB13" t="n">
         <v>126</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BC13" t="n">
         <v>351</v>
       </c>
-      <c r="BC13" t="n">
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ay5p7eo3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>51</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="BA14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KYxHcrE6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4j4zCbVN</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0Mk66xgo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD17" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6uvINgGP</t>
+          <t>v7X2Cujs</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,152 +728,152 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brusque</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.38</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="T2" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO2" t="n">
         <v>21</v>
       </c>
-      <c r="AF2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AP2" t="n">
         <v>41</v>
       </c>
-      <c r="AL2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV2" t="n">
         <v>101</v>
       </c>
-      <c r="AS2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>81</v>
-      </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
         <v>21</v>
@@ -882,25 +882,25 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC2" t="n">
         <v>126</v>
       </c>
-      <c r="BB2" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>81</v>
-      </c>
       <c r="BD2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hxzEOZ0J</t>
+          <t>6uvINgGP</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Brusque</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.25</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.4</v>
       </c>
-      <c r="P3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>f1bLNB0J</t>
+          <t>hxzEOZ0J</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,31 +1102,31 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1135,16 +1135,16 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1153,76 +1153,76 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>1250</v>
+        <v>8.5</v>
       </c>
       <c r="AH4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="n">
         <v>12</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK4" t="n">
         <v>29</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
         <v>67</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
       </c>
       <c r="AS4" t="n">
         <v>201</v>
@@ -1231,28 +1231,28 @@
         <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY4" t="n">
         <v>34</v>
       </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M7QCc5bd</t>
+          <t>f1bLNB0J</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
         <v>1.65</v>
       </c>
       <c r="S5" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>700</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>50</v>
+        <v>1250</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
         <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="BA5" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lfbbVm5m</t>
+          <t>M7QCc5bd</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="H6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>700</v>
+      </c>
+      <c r="AN6" t="n">
         <v>3.6</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM6" t="n">
+      <c r="AO6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>29</v>
       </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>34</v>
-      </c>
       <c r="AR6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="AS6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="n">
+      <c r="BD6" t="n">
         <v>51</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>67jpeTqR</t>
+          <t>lfbbVm5m</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,41 +1638,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.5</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1705,22 +1705,22 @@
         <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
         <v>21</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
       </c>
       <c r="AC7" t="n">
         <v>13</v>
@@ -1735,43 +1735,43 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI7" t="n">
         <v>12</v>
       </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
         <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
         <v>3.25</v>
@@ -1783,25 +1783,25 @@
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
         <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4MhaUsOk</t>
+          <t>67jpeTqR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T8" t="n">
         <v>3.25</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>1.57</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>2.25</v>
       </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
       </c>
       <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
         <v>12</v>
       </c>
-      <c r="Z8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>29</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>41</v>
       </c>
-      <c r="AC8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM8" t="n">
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
         <v>41</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AW8" t="n">
         <v>5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.33</v>
       </c>
       <c r="AX8" t="n">
         <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8j7TZ30S</t>
+          <t>4MhaUsOk</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,55 +2012,55 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
         <v>1.91</v>
       </c>
-      <c r="J9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
       <c r="L9" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9" t="n">
         <v>2.1</v>
@@ -2069,28 +2069,28 @@
         <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2099,46 +2099,46 @@
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>6.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>34</v>
       </c>
       <c r="AQ9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS9" t="n">
         <v>301</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2147,22 +2147,22 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CODKyQVF</t>
+          <t>8j7TZ30S</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,19 +2194,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
         <v>1.95</v>
@@ -2218,7 +2218,7 @@
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2227,34 +2227,34 @@
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
@@ -2269,43 +2269,43 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH10" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6.5</v>
       </c>
       <c r="AI10" t="n">
         <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
         <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>351</v>
       </c>
       <c r="AN10" t="n">
         <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
@@ -2320,7 +2320,7 @@
         <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4vIbqhgd</t>
+          <t>CODKyQVF</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,59 +2366,59 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="J11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L11" t="n">
         <v>2.63</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.1</v>
       </c>
-      <c r="L11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.05</v>
-      </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2427,79 +2427,79 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>301</v>
+        <v>6.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP11" t="n">
         <v>34</v>
       </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR11" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
         <v>2.63</v>
@@ -2508,37 +2508,37 @@
         <v>8.5</v>
       </c>
       <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC11" t="n">
         <v>51</v>
       </c>
-      <c r="AW11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>81</v>
-      </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>b1wYci8k</t>
+          <t>4vIbqhgd</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,157 +2558,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="K12" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W12" t="n">
         <v>7</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="X12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="n">
         <v>6.5</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
         <v>19</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>41</v>
       </c>
-      <c r="AC12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY12" t="n">
         <v>29</v>
       </c>
-      <c r="AF12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AZ12" t="n">
         <v>81</v>
       </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV12" t="n">
+      <c r="BA12" t="n">
         <v>101</v>
       </c>
-      <c r="AW12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>301</v>
-      </c>
       <c r="BB12" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>rPTkoEOq</t>
+          <t>b1wYci8k</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,160 +2740,160 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>2.88</v>
       </c>
       <c r="R13" t="n">
-        <v>2.35</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="n">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="T13" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.53</v>
+        <v>2.75</v>
       </c>
       <c r="V13" t="n">
-        <v>2.38</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y13" t="n">
         <v>10</v>
       </c>
-      <c r="X13" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD13" t="n">
         <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AF13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>34</v>
       </c>
-      <c r="AG13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX13" t="n">
         <v>41</v>
       </c>
-      <c r="AL13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>21</v>
-      </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AZ13" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="BB13" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BC13" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ay5p7eo3</t>
+          <t>rPTkoEOq</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,160 +2922,160 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="K14" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T14" t="n">
         <v>3.5</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="U14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W14" t="n">
+        <v>10</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW14" t="n">
         <v>6</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7</v>
-      </c>
-      <c r="X14" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ14" t="n">
+      <c r="AX14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>67</v>
       </c>
-      <c r="AR14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS14" t="n">
+      <c r="BA14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC14" t="n">
         <v>351</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>81</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KYxHcrE6</t>
+          <t>Ay5p7eo3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3104,37 +3104,37 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>2.9</v>
       </c>
       <c r="I15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J15" t="n">
         <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>1.91</v>
       </c>
       <c r="L15" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
         <v>1.53</v>
@@ -3161,19 +3161,19 @@
         <v>1.62</v>
       </c>
       <c r="W15" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
@@ -3191,43 +3191,43 @@
         <v>81</v>
       </c>
       <c r="AG15" t="n">
-        <v>1250</v>
+        <v>6.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT15" t="n">
         <v>2.2</v>
@@ -3239,22 +3239,22 @@
         <v>81</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4j4zCbVN</t>
+          <t>KYxHcrE6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L16" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="T16" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
         <v>51</v>
       </c>
-      <c r="AG16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>21</v>
-      </c>
       <c r="AM16" t="n">
-        <v>34</v>
+        <v>1250</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
         <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0Mk66xgo</t>
+          <t>4j4zCbVN</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3468,162 +3468,344 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
         <v>3</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="Q17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.83</v>
       </c>
-      <c r="L17" t="n">
-        <v>4</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.25</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
         <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
         <v>26</v>
       </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6</v>
       </c>
       <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK17" t="n">
         <v>21</v>
       </c>
-      <c r="AF17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
+      <c r="AL17" t="n">
         <v>34</v>
       </c>
-      <c r="AL17" t="n">
-        <v>29</v>
-      </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ17" t="n">
         <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS17" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY17" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
         <v>67</v>
       </c>
-      <c r="BA17" t="n">
-        <v>126</v>
-      </c>
       <c r="BB17" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
         <v>51</v>
       </c>
       <c r="BD17" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0Mk66xgo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W18" t="n">
+        <v>6</v>
+      </c>
+      <c r="X18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD18" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -762,7 +762,7 @@
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
@@ -795,7 +795,7 @@
         <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -828,13 +828,13 @@
         <v>5.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
@@ -855,7 +855,7 @@
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="n">
         <v>151</v>
@@ -1675,10 +1675,10 @@
         <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>1.2</v>
@@ -1869,10 +1869,10 @@
         <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -2036,13 +2036,13 @@
         <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2069,19 +2069,19 @@
         <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y9" t="n">
         <v>13</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>12</v>
       </c>
       <c r="Z9" t="n">
         <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -2093,13 +2093,13 @@
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH9" t="n">
         <v>10</v>
@@ -2123,7 +2123,7 @@
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
         <v>34</v>
@@ -2162,7 +2162,7 @@
         <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
         <v>2.88</v>
@@ -3310,7 +3310,7 @@
         <v>1.91</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.13</v>
@@ -3337,22 +3337,22 @@
         <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
         <v>5.5</v>
       </c>
       <c r="X16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
         <v>21</v>
@@ -3367,13 +3367,13 @@
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
         <v>81</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH16" t="n">
         <v>19</v>
@@ -3424,13 +3424,13 @@
         <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
         <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA16" t="n">
         <v>151</v>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
@@ -3546,7 +3546,7 @@
         <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3806,6 +3806,188 @@
         <v>51</v>
       </c>
       <c r="BD18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ANuASNdn</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>La Guaira</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD19" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -1132,7 +1132,7 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1141,16 +1141,16 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
@@ -1165,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>21</v>
@@ -1189,7 +1189,7 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH4" t="n">
         <v>15</v>
@@ -1210,7 +1210,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
         <v>13</v>
@@ -1219,16 +1219,16 @@
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1243,7 +1243,7 @@
         <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>67</v>
@@ -1311,10 +1311,10 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1863,10 +1863,10 @@
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
         <v>1.7</v>
@@ -1986,7 +1986,7 @@
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2254,7 +2254,7 @@
         <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
@@ -2269,7 +2269,7 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
         <v>7</v>
@@ -2281,16 +2281,16 @@
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
         <v>17</v>
@@ -2302,7 +2302,7 @@
         <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2314,22 +2314,22 @@
         <v>81</v>
       </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
         <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX10" t="n">
         <v>11</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -2436,10 +2436,10 @@
         <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
         <v>41</v>
@@ -2466,13 +2466,13 @@
         <v>6.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
         <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
         <v>17</v>
@@ -2484,10 +2484,10 @@
         <v>351</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>34</v>
@@ -2511,7 +2511,7 @@
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX11" t="n">
         <v>11</v>
@@ -2523,7 +2523,7 @@
         <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
         <v>201</v>
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K14" t="n">
         <v>2.4</v>
@@ -3012,19 +3012,19 @@
         <v>17</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
         <v>126</v>
@@ -3039,7 +3039,7 @@
         <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
@@ -3057,7 +3057,7 @@
         <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX14" t="n">
         <v>21</v>
@@ -3131,10 +3131,10 @@
         <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.53</v>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
         <v>2.9</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
         <v>2.88</v>
@@ -3483,7 +3483,7 @@
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
@@ -3492,7 +3492,7 @@
         <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -3537,7 +3537,7 @@
         <v>29</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
         <v>34</v>
@@ -3546,7 +3546,7 @@
         <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3573,7 +3573,7 @@
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN17" t="n">
         <v>4.75</v>
@@ -3615,7 +3615,7 @@
         <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
         <v>201</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ANuASNdn</t>
+          <t>tYtqElCi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,172 +3822,354 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>La Guaira</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.57</v>
+        <v>1.44</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.57</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>3.15</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>3.15</v>
+        <v>8.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>6.1</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="X19" t="n">
-        <v>11.75</v>
+        <v>5.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>27</v>
+        <v>8.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="AG19" t="n">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>11.75</v>
+        <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>10.25</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AM19" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.35</v>
+        <v>3.1</v>
       </c>
       <c r="AO19" t="n">
-        <v>13.5</v>
+        <v>7</v>
       </c>
       <c r="AP19" t="n">
         <v>23</v>
       </c>
       <c r="AQ19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>301</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ANuASNdn</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>La Guaira</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>60</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR20" t="n">
         <v>100</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS20" t="n">
         <v>350</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT20" t="n">
         <v>2.45</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU20" t="n">
         <v>7.4</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV20" t="n">
         <v>75</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW20" t="n">
         <v>4.35</v>
       </c>
-      <c r="AX19" t="n">
+      <c r="AX20" t="n">
         <v>13.5</v>
       </c>
-      <c r="AY19" t="n">
+      <c r="AY20" t="n">
         <v>23</v>
       </c>
-      <c r="AZ19" t="n">
+      <c r="AZ20" t="n">
         <v>60</v>
       </c>
-      <c r="BA19" t="n">
+      <c r="BA20" t="n">
         <v>100</v>
       </c>
-      <c r="BB19" t="n">
+      <c r="BB20" t="n">
         <v>350</v>
       </c>
-      <c r="BC19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD19" t="n">
+      <c r="BC20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD20" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>2.75</v>
@@ -762,7 +762,7 @@
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
@@ -828,7 +828,7 @@
         <v>5.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -855,7 +855,7 @@
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
         <v>151</v>
@@ -1132,7 +1132,7 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
@@ -1723,7 +1723,7 @@
         <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
@@ -1738,22 +1738,22 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
         <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN7" t="n">
         <v>4.33</v>
@@ -1786,7 +1786,7 @@
         <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
@@ -1798,7 +1798,7 @@
         <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
         <v>351</v>
@@ -1863,10 +1863,10 @@
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="n">
         <v>1.7</v>
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
         <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
         <v>1.53</v>
@@ -3167,13 +3167,13 @@
         <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
         <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
@@ -3191,7 +3191,7 @@
         <v>81</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH15" t="n">
         <v>11</v>
@@ -3224,7 +3224,7 @@
         <v>67</v>
       </c>
       <c r="AR15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS15" t="n">
         <v>351</v>
@@ -3242,7 +3242,7 @@
         <v>4.33</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>34</v>
@@ -3254,7 +3254,7 @@
         <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J16" t="n">
         <v>2.88</v>
@@ -3310,7 +3310,7 @@
         <v>1.91</v>
       </c>
       <c r="L16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>1.13</v>
@@ -3337,22 +3337,22 @@
         <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W16" t="n">
         <v>5.5</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
         <v>21</v>
@@ -3367,13 +3367,13 @@
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
         <v>81</v>
       </c>
       <c r="AG16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
         <v>19</v>
@@ -3424,13 +3424,13 @@
         <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY16" t="n">
         <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA16" t="n">
         <v>151</v>
@@ -3480,7 +3480,7 @@
         <v>2.88</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
         <v>2.5</v>
@@ -3489,7 +3489,7 @@
         <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
         <v>3.25</v>
@@ -3498,7 +3498,7 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -3507,10 +3507,10 @@
         <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S17" t="n">
         <v>1.5</v>
@@ -3537,13 +3537,13 @@
         <v>29</v>
       </c>
       <c r="AA17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB17" t="n">
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
         <v>6</v>
@@ -3558,7 +3558,7 @@
         <v>7.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
         <v>10</v>
@@ -3573,7 +3573,7 @@
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN17" t="n">
         <v>4.75</v>
@@ -3683,10 +3683,10 @@
         <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q18" t="n">
         <v>2.7</v>
@@ -3701,10 +3701,10 @@
         <v>2.2</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W18" t="n">
         <v>6</v>
@@ -3731,13 +3731,13 @@
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
         <v>81</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH18" t="n">
         <v>13</v>
@@ -3797,7 +3797,7 @@
         <v>67</v>
       </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB18" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>2.75</v>
@@ -762,13 +762,13 @@
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -828,7 +828,7 @@
         <v>5.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -855,7 +855,7 @@
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="n">
         <v>151</v>
@@ -947,10 +947,10 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -959,10 +959,10 @@
         <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.67</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
         <v>4.4</v>
@@ -1487,10 +1487,10 @@
         <v>2.32</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1499,31 +1499,31 @@
         <v>7.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W6" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X6" t="n">
         <v>8</v>
@@ -1535,88 +1535,88 @@
         <v>14.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR6" t="n">
         <v>60</v>
       </c>
       <c r="AS6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW6" t="n">
         <v>6.1</v>
       </c>
       <c r="AX6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AZ6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA6" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB6" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
@@ -1729,7 +1729,7 @@
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1744,16 +1744,16 @@
         <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
         <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN7" t="n">
         <v>4.33</v>
@@ -1786,7 +1786,7 @@
         <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
@@ -1798,7 +1798,7 @@
         <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
         <v>351</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
@@ -1848,10 +1848,10 @@
         <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
         <v>3.4</v>
@@ -1863,16 +1863,16 @@
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -1881,10 +1881,10 @@
         <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
         <v>10</v>
@@ -1935,13 +1935,13 @@
         <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN8" t="n">
         <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -2961,10 +2961,10 @@
         <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R14" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S14" t="n">
         <v>1.29</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
         <v>1.83</v>
       </c>
       <c r="L15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.13</v>
@@ -3167,13 +3167,13 @@
         <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
         <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
@@ -3191,7 +3191,7 @@
         <v>81</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH15" t="n">
         <v>11</v>
@@ -3224,7 +3224,7 @@
         <v>67</v>
       </c>
       <c r="AR15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS15" t="n">
         <v>351</v>
@@ -3239,10 +3239,10 @@
         <v>81</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>34</v>
@@ -3495,10 +3495,10 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -3683,10 +3683,10 @@
         <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P18" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q18" t="n">
         <v>2.7</v>
@@ -3701,10 +3701,10 @@
         <v>2.2</v>
       </c>
       <c r="U18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W18" t="n">
         <v>6</v>
@@ -3731,13 +3731,13 @@
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
         <v>81</v>
       </c>
       <c r="AG18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH18" t="n">
         <v>13</v>
@@ -3797,7 +3797,7 @@
         <v>67</v>
       </c>
       <c r="BA18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
         <v>351</v>
@@ -4041,10 +4041,10 @@
         <v>3.15</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="O20" t="n">
         <v>1.38</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -1493,10 +1493,10 @@
         <v>4.8</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.35</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1687,10 +1687,10 @@
         <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1711,10 +1711,10 @@
         <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
@@ -1738,10 +1738,10 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1759,7 +1759,7 @@
         <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1854,7 +1854,7 @@
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1863,16 +1863,16 @@
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -1881,10 +1881,10 @@
         <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
         <v>10</v>
@@ -2767,16 +2767,16 @@
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
         <v>2.88</v>
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K14" t="n">
         <v>2.4</v>
@@ -2973,10 +2973,10 @@
         <v>3.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W14" t="n">
         <v>10</v>
@@ -3006,7 +3006,7 @@
         <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
         <v>17</v>
@@ -3018,10 +3018,10 @@
         <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
         <v>34</v>
@@ -3057,7 +3057,7 @@
         <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
         <v>21</v>
@@ -3072,7 +3072,7 @@
         <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
         <v>351</v>
@@ -3495,22 +3495,22 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
         <v>1.5</v>
@@ -3683,10 +3683,10 @@
         <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q18" t="n">
         <v>2.7</v>
@@ -3701,10 +3701,10 @@
         <v>2.2</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W18" t="n">
         <v>6</v>
@@ -3731,13 +3731,13 @@
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
         <v>81</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH18" t="n">
         <v>13</v>
@@ -3797,7 +3797,7 @@
         <v>67</v>
       </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB18" t="n">
         <v>351</v>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H19" t="n">
         <v>4.5</v>
@@ -3859,10 +3859,10 @@
         <v>8.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.4</v>
@@ -3883,10 +3883,10 @@
         <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W19" t="n">
         <v>5</v>
@@ -3916,7 +3916,7 @@
         <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -947,10 +947,10 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -959,10 +959,10 @@
         <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.67</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.4</v>
+        <v>4.05</v>
       </c>
       <c r="J6" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4.8</v>
+        <v>4.45</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1499,10 +1499,10 @@
         <v>7.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
         <v>2</v>
@@ -1514,10 +1514,10 @@
         <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
         <v>1.75</v>
@@ -1526,22 +1526,22 @@
         <v>6.3</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y6" t="n">
         <v>8.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB6" t="n">
         <v>30</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.4</v>
@@ -1553,46 +1553,46 @@
         <v>90</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL6" t="n">
         <v>50</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>55</v>
       </c>
       <c r="AM6" t="n">
         <v>800</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS6" t="n">
         <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>7.3</v>
@@ -1601,22 +1601,22 @@
         <v>70</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ6" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA6" t="n">
         <v>175</v>
       </c>
-      <c r="BA6" t="n">
-        <v>200</v>
-      </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1693,10 +1693,10 @@
         <v>2.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U7" t="n">
         <v>1.57</v>
@@ -1705,16 +1705,16 @@
         <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
         <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
@@ -1726,10 +1726,10 @@
         <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1738,28 +1738,28 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
         <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN7" t="n">
         <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1774,7 +1774,7 @@
         <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
@@ -1786,7 +1786,7 @@
         <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
@@ -1798,7 +1798,7 @@
         <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
         <v>351</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -2251,10 +2251,10 @@
         <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>13</v>
@@ -2284,16 +2284,16 @@
         <v>6</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
         <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>34</v>
@@ -2302,7 +2302,7 @@
         <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2314,7 +2314,7 @@
         <v>81</v>
       </c>
       <c r="AR10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
         <v>301</v>
@@ -2323,7 +2323,7 @@
         <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
@@ -3495,22 +3495,22 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S17" t="n">
         <v>1.5</v>
@@ -3558,7 +3558,7 @@
         <v>7.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
         <v>10</v>
@@ -3600,10 +3600,10 @@
         <v>8.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX17" t="n">
         <v>15</v>
@@ -3859,10 +3859,10 @@
         <v>8.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.4</v>
@@ -4023,88 +4023,88 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
         <v>3.15</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="T20" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="U20" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="V20" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="W20" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="X20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC20" t="n">
         <v>7.2</v>
       </c>
-      <c r="X20" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AD20" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE20" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AG20" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="AH20" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
         <v>10.25</v>
@@ -4113,58 +4113,58 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="n">
         <v>900</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AS20" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AV20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="AX20" t="n">
         <v>13.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
         <v>60</v>
       </c>
       <c r="BA20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB20" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC20" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -1117,7 +1117,7 @@
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
@@ -1132,7 +1132,7 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>4.05</v>
+        <v>3.65</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4.45</v>
+        <v>4.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1499,52 +1499,52 @@
         <v>7.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="U6" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
         <v>1.75</v>
       </c>
       <c r="W6" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC6" t="n">
         <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
         <v>16.5</v>
@@ -1553,40 +1553,40 @@
         <v>90</v>
       </c>
       <c r="AG6" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL6" t="n">
         <v>45</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>50</v>
       </c>
       <c r="AM6" t="n">
         <v>800</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AP6" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AR6" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS6" t="n">
         <v>250</v>
@@ -1595,28 +1595,28 @@
         <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV6" t="n">
         <v>70</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AX6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AY6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ6" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA6" t="n">
         <v>150</v>
       </c>
-      <c r="BA6" t="n">
-        <v>175</v>
-      </c>
       <c r="BB6" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1663,7 +1663,7 @@
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
         <v>2.63</v>
@@ -1681,10 +1681,10 @@
         <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
         <v>1.65</v>
@@ -1708,7 +1708,7 @@
         <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1726,7 +1726,7 @@
         <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
@@ -2224,7 +2224,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -2281,10 +2281,10 @@
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>9</v>
@@ -2305,7 +2305,7 @@
         <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
@@ -2329,10 +2329,10 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
         <v>23</v>
@@ -2597,10 +2597,10 @@
         <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K14" t="n">
         <v>2.4</v>
@@ -2973,10 +2973,10 @@
         <v>3.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V14" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W14" t="n">
         <v>10</v>
@@ -3006,13 +3006,13 @@
         <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
         <v>17</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>15</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
         <v>126</v>
@@ -3033,13 +3033,13 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP14" t="n">
         <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
@@ -3072,7 +3072,7 @@
         <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC14" t="n">
         <v>351</v>
@@ -3119,10 +3119,10 @@
         <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>1.83</v>
@@ -3191,7 +3191,7 @@
         <v>81</v>
       </c>
       <c r="AG15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH15" t="n">
         <v>11</v>
@@ -3239,7 +3239,7 @@
         <v>81</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX15" t="n">
         <v>17</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="n">
         <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
@@ -3558,7 +3558,7 @@
         <v>7.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
         <v>10</v>
@@ -3600,10 +3600,10 @@
         <v>8.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX17" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -1311,10 +1311,10 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
         <v>2.63</v>
@@ -1672,7 +1672,7 @@
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1687,10 +1687,10 @@
         <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S7" t="n">
         <v>1.3</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1863,16 +1863,16 @@
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -1899,7 +1899,7 @@
         <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
@@ -1923,7 +1923,7 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
         <v>29</v>
@@ -1974,7 +1974,7 @@
         <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
         <v>51</v>
@@ -2209,16 +2209,16 @@
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J10" t="n">
         <v>4.33</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2257,7 +2257,7 @@
         <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
         <v>41</v>
@@ -2272,7 +2272,7 @@
         <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
@@ -2287,10 +2287,10 @@
         <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
         <v>19</v>
@@ -2311,13 +2311,13 @@
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
         <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
         <v>2.5</v>
@@ -2937,7 +2937,7 @@
         <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
         <v>2.38</v>
@@ -2973,10 +2973,10 @@
         <v>3.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W14" t="n">
         <v>10</v>
@@ -3006,7 +3006,7 @@
         <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
         <v>17</v>
@@ -3033,7 +3033,7 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
         <v>17</v>
@@ -4044,7 +4044,7 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -762,7 +762,7 @@
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
@@ -795,7 +795,7 @@
         <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -828,13 +828,13 @@
         <v>5.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
@@ -855,7 +855,7 @@
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
         <v>151</v>
@@ -1117,13 +1117,13 @@
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
@@ -1135,10 +1135,10 @@
         <v>7.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
         <v>2.35</v>
@@ -1243,7 +1243,7 @@
         <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
         <v>67</v>
@@ -1252,7 +1252,7 @@
         <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J5" t="n">
         <v>2.3</v>
@@ -1314,19 +1314,19 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1335,16 +1335,16 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1359,19 +1359,19 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
@@ -1395,7 +1395,7 @@
         <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1416,7 +1416,7 @@
         <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>7</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1699,10 +1699,10 @@
         <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W7" t="n">
         <v>10</v>
@@ -1714,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
@@ -1732,7 +1732,7 @@
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
         <v>13</v>
@@ -1750,13 +1750,13 @@
         <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
         <v>126</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
@@ -1777,7 +1777,7 @@
         <v>3.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV7" t="n">
         <v>41</v>
@@ -1789,13 +1789,13 @@
         <v>17</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ7" t="n">
         <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
         <v>126</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -1890,16 +1890,16 @@
         <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
@@ -1917,13 +1917,13 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
         <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>10</v>
       </c>
       <c r="AJ8" t="n">
         <v>29</v>
@@ -1941,10 +1941,10 @@
         <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1974,10 +1974,10 @@
         <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
         <v>126</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J13" t="n">
         <v>2.4</v>
@@ -2764,7 +2764,7 @@
         <v>1.91</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
@@ -2797,7 +2797,7 @@
         <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="X13" t="n">
         <v>6</v>
@@ -2815,7 +2815,7 @@
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD13" t="n">
         <v>7.5</v>
@@ -2833,13 +2833,13 @@
         <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
         <v>81</v>
       </c>
       <c r="AK13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL13" t="n">
         <v>81</v>
@@ -2869,7 +2869,7 @@
         <v>2.2</v>
       </c>
       <c r="AU13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV13" t="n">
         <v>101</v>
@@ -3313,10 +3313,10 @@
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.53</v>
@@ -3477,28 +3477,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
         <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -3519,46 +3519,46 @@
         <v>2.5</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
         <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
         <v>26</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
         <v>10</v>
@@ -3576,7 +3576,7 @@
         <v>351</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
@@ -3591,7 +3591,7 @@
         <v>81</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT17" t="n">
         <v>2.5</v>
@@ -3600,13 +3600,13 @@
         <v>8.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
         <v>26</v>
@@ -3615,7 +3615,7 @@
         <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB17" t="n">
         <v>201</v>
@@ -4041,7 +4041,7 @@
         <v>3.15</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
         <v>5.9</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -768,7 +768,7 @@
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -777,16 +777,16 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T2" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -1132,7 +1132,7 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1681,16 +1681,16 @@
         <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S7" t="n">
         <v>1.3</v>
@@ -1705,7 +1705,7 @@
         <v>2.38</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
         <v>12</v>
@@ -1738,16 +1738,16 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>26</v>
@@ -1765,7 +1765,7 @@
         <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1786,7 +1786,7 @@
         <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
         <v>21</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S8" t="n">
         <v>1.33</v>
@@ -1881,19 +1881,19 @@
         <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
         <v>21</v>
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1926,22 +1926,22 @@
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
         <v>29</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>26</v>
       </c>
       <c r="AM8" t="n">
         <v>151</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
@@ -1962,16 +1962,16 @@
         <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
@@ -1980,7 +1980,7 @@
         <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
         <v>2.4</v>
@@ -2764,7 +2764,7 @@
         <v>1.91</v>
       </c>
       <c r="L13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
@@ -2833,7 +2833,7 @@
         <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
         <v>81</v>
@@ -2869,7 +2869,7 @@
         <v>2.2</v>
       </c>
       <c r="AU13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV13" t="n">
         <v>101</v>
@@ -3477,19 +3477,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
         <v>3.1</v>
@@ -3531,22 +3531,22 @@
         <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
         <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="n">
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3558,13 +3558,13 @@
         <v>7</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK17" t="n">
         <v>21</v>
@@ -3579,7 +3579,7 @@
         <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="n">
         <v>29</v>
@@ -3612,7 +3612,7 @@
         <v>26</v>
       </c>
       <c r="AZ17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA17" t="n">
         <v>67</v>
@@ -4041,7 +4041,7 @@
         <v>3.15</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
         <v>5.9</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1699,25 +1699,25 @@
         <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W7" t="n">
         <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
         <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
         <v>21</v>
@@ -1729,7 +1729,7 @@
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>34</v>
@@ -1744,22 +1744,22 @@
         <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN7" t="n">
         <v>4.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1783,7 +1783,7 @@
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
         <v>15</v>
@@ -1792,13 +1792,13 @@
         <v>21</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
         <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC7" t="n">
         <v>351</v>
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1962,7 +1962,7 @@
         <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
         <v>5.5</v>
@@ -2967,10 +2967,10 @@
         <v>2.3</v>
       </c>
       <c r="S14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
         <v>1.57</v>
@@ -2979,7 +2979,7 @@
         <v>2.25</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
         <v>10</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
         <v>126</v>
@@ -3048,7 +3048,7 @@
         <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
@@ -3072,7 +3072,7 @@
         <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
         <v>351</v>
@@ -3477,22 +3477,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -3585,10 +3585,10 @@
         <v>29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS17" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -965,31 +965,31 @@
         <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
         <v>23</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>26</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1007,19 +1007,19 @@
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH3" t="n">
         <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1028,7 +1028,7 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>
@@ -1040,13 +1040,13 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1055,10 +1055,10 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1067,7 +1067,7 @@
         <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1207,7 +1207,7 @@
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AN4" t="n">
         <v>4.33</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lfbbVm5m</t>
+          <t>p8YvIZqB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X7" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>11</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AO7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP7" t="n">
         <v>21</v>
       </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AR7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC7" t="n">
         <v>51</v>
       </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA7" t="n">
+      <c r="BD7" t="n">
         <v>51</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>67jpeTqR</t>
+          <t>lfbbVm5m</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,74 +1820,74 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L8" t="n">
         <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>2.08</v>
+        <v>2.35</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1899,31 +1899,31 @@
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI8" t="n">
         <v>12</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>34</v>
@@ -1932,34 +1932,34 @@
         <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
         <v>41</v>
@@ -1971,22 +1971,22 @@
         <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD8" t="n">
         <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -3116,7 +3116,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I15" t="n">
         <v>2.6</v>
@@ -3137,16 +3137,16 @@
         <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
         <v>1.62</v>
@@ -3173,7 +3173,7 @@
         <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
@@ -3224,7 +3224,7 @@
         <v>67</v>
       </c>
       <c r="AR15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS15" t="n">
         <v>351</v>
@@ -3295,16 +3295,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
         <v>1.91</v>
@@ -3313,10 +3313,10 @@
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
         <v>1.53</v>
@@ -3349,7 +3349,7 @@
         <v>8</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
         <v>17</v>
@@ -3376,13 +3376,13 @@
         <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK16" t="n">
         <v>41</v>
@@ -3421,7 +3421,7 @@
         <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX16" t="n">
         <v>26</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4j4zCbVN</t>
+          <t>0Mk66xgo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3468,157 +3468,157 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P17" t="n">
         <v>2.25</v>
       </c>
-      <c r="J17" t="n">
-        <v>4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
-        <v>9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
       <c r="Q17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T17" t="n">
         <v>2.2</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="W17" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB17" t="n">
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD17" t="n">
         <v>6</v>
       </c>
       <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
         <v>17</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AP17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>67</v>
       </c>
       <c r="AR17" t="n">
         <v>101</v>
       </c>
       <c r="AS17" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>67</v>
       </c>
-      <c r="AW17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>41</v>
-      </c>
       <c r="BA17" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC17" t="n">
         <v>51</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0Mk66xgo</t>
+          <t>tYtqElCi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3650,157 +3650,157 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.55</v>
+        <v>1.42</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.44</v>
       </c>
-      <c r="S18" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T18" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V18" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="W18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
         <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AG18" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AL18" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AM18" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="AO18" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AP18" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR18" t="n">
         <v>51</v>
       </c>
-      <c r="AR18" t="n">
-        <v>101</v>
-      </c>
       <c r="AS18" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AV18" t="n">
         <v>81</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="AX18" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AY18" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AZ18" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BA18" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BB18" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC18" t="n">
         <v>51</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>tYtqElCi</t>
+          <t>ANuASNdn</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,354 +3822,172 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O19" t="n">
         <v>1.42</v>
       </c>
-      <c r="H19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
-        <v>10</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.4</v>
-      </c>
       <c r="P19" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="U19" t="n">
-        <v>2.63</v>
+        <v>1.93</v>
       </c>
       <c r="V19" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="W19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.5</v>
+        <v>30</v>
       </c>
       <c r="AA19" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AB19" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="AE19" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="AH19" t="n">
-        <v>34</v>
+        <v>11.25</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>10.25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="AK19" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AS19" t="n">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.63</v>
+        <v>2.37</v>
       </c>
       <c r="AU19" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="AV19" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW19" t="n">
-        <v>9</v>
+        <v>4.25</v>
       </c>
       <c r="AX19" t="n">
-        <v>41</v>
+        <v>13.5</v>
       </c>
       <c r="AY19" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="BA19" t="n">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="BB19" t="n">
-        <v>501</v>
+        <v>350</v>
       </c>
       <c r="BC19" t="n">
         <v>51</v>
       </c>
       <c r="BD19" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ANuASNdn</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="X20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD20" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -929,40 +929,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
         <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1013,13 +1013,13 @@
         <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1031,10 +1031,10 @@
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
@@ -1043,13 +1043,13 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
         <v>2.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1058,7 +1058,7 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1067,7 +1067,7 @@
         <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1114,10 +1114,10 @@
         <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
@@ -1129,16 +1129,16 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
         <v>2.35</v>
@@ -1177,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1186,16 +1186,16 @@
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH4" t="n">
         <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
         <v>34</v>
@@ -1207,7 +1207,7 @@
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
         <v>4.33</v>
@@ -1311,22 +1311,22 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J8" t="n">
         <v>2.63</v>
@@ -1863,16 +1863,16 @@
         <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S8" t="n">
         <v>1.3</v>
@@ -1881,10 +1881,10 @@
         <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W8" t="n">
         <v>11</v>
@@ -1896,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
@@ -1905,7 +1905,7 @@
         <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="n">
         <v>7.5</v>
@@ -1935,10 +1935,10 @@
         <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
@@ -1950,7 +1950,7 @@
         <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
         <v>101</v>
@@ -2403,16 +2403,16 @@
         <v>2.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
         <v>2.1</v>
@@ -2752,10 +2752,10 @@
         <v>1.65</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J13" t="n">
         <v>2.4</v>
@@ -2764,7 +2764,7 @@
         <v>1.91</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
@@ -2833,7 +2833,7 @@
         <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
         <v>81</v>
@@ -2869,7 +2869,7 @@
         <v>2.2</v>
       </c>
       <c r="AU13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV13" t="n">
         <v>101</v>
@@ -2934,10 +2934,10 @@
         <v>1.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>2.38</v>
@@ -2952,13 +2952,13 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q14" t="n">
         <v>1.6</v>
@@ -2997,25 +2997,25 @@
         <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
         <v>41</v>
@@ -3024,7 +3024,7 @@
         <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
         <v>126</v>
@@ -3116,7 +3116,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
         <v>2.6</v>
@@ -3131,22 +3131,22 @@
         <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
         <v>1.62</v>
@@ -3173,7 +3173,7 @@
         <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
@@ -3224,7 +3224,7 @@
         <v>67</v>
       </c>
       <c r="AR15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS15" t="n">
         <v>351</v>
@@ -3313,10 +3313,10 @@
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1141,43 +1141,43 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
         <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1189,19 +1189,19 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
       </c>
       <c r="AJ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK4" t="n">
         <v>34</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1210,25 +1210,25 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
         <v>8.5</v>
@@ -1237,10 +1237,10 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
         <v>34</v>
@@ -1311,10 +1311,10 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1359,7 +1359,7 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1368,7 +1368,7 @@
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
@@ -1416,7 +1416,7 @@
         <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
         <v>7</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lfbbVm5m</t>
+          <t>4MhaUsOk</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
         <v>15</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>11</v>
-      </c>
-      <c r="X8" t="n">
-        <v>12</v>
-      </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
         <v>17</v>
       </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>12</v>
-      </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="n">
         <v>101</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
         <v>4.33</v>
       </c>
-      <c r="AO8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC8" t="n">
         <v>51</v>
       </c>
-      <c r="BB8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>351</v>
-      </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4MhaUsOk</t>
+          <t>8j7TZ30S</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,73 +2012,73 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.5</v>
       </c>
-      <c r="P9" t="n">
+      <c r="T9" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="n">
         <v>34</v>
@@ -2087,40 +2087,40 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD9" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO9" t="n">
         <v>21</v>
@@ -2135,34 +2135,34 @@
         <v>101</v>
       </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8j7TZ30S</t>
+          <t>CODKyQVF</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,70 +2194,70 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.4</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K10" t="n">
         <v>2.05</v>
       </c>
-      <c r="J10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
       <c r="L10" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
         <v>41</v>
@@ -2275,43 +2275,43 @@
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>6.5</v>
       </c>
       <c r="AH10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>9</v>
       </c>
-      <c r="AI10" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
         <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="n">
         <v>101</v>
@@ -2320,7 +2320,7 @@
         <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2329,10 +2329,10 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
         <v>23</v>
@@ -2341,7 +2341,7 @@
         <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CODKyQVF</t>
+          <t>4vIbqhgd</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,41 +2366,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>4.75</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -2415,10 +2415,10 @@
         <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2427,79 +2427,79 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP11" t="n">
         <v>23</v>
       </c>
-      <c r="AP11" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
         <v>2.63</v>
@@ -2508,37 +2508,37 @@
         <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4vIbqhgd</t>
+          <t>b1wYci8k</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,157 +2558,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.1</v>
       </c>
-      <c r="L12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="U12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y12" t="n">
         <v>10</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD12" t="n">
         <v>7</v>
       </c>
-      <c r="X12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AE12" t="n">
         <v>29</v>
       </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
       <c r="AF12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY12" t="n">
         <v>51</v>
       </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AZ12" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA12" t="n">
         <v>301</v>
       </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>101</v>
-      </c>
       <c r="BB12" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>b1wYci8k</t>
+          <t>rPTkoEOq</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,160 +2740,160 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.4</v>
       </c>
-      <c r="K13" t="n">
-        <v>1.91</v>
-      </c>
       <c r="L13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>17</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU13" t="n">
         <v>7.5</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
         <v>6</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="X13" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI13" t="n">
+      <c r="AX13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY13" t="n">
         <v>23</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AZ13" t="n">
         <v>67</v>
       </c>
-      <c r="AL13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="BA13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC13" t="n">
         <v>351</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>81</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rPTkoEOq</t>
+          <t>Ay5p7eo3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,160 +2922,160 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J14" t="n">
         <v>4</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P14" t="n">
         <v>2.38</v>
       </c>
-      <c r="K14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="Q14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="n">
         <v>4.33</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="AX14" t="n">
         <v>17</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS14" t="n">
+      <c r="AY14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA14" t="n">
         <v>101</v>
       </c>
-      <c r="AT14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>67</v>
-      </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC14" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ay5p7eo3</t>
+          <t>KYxHcrE6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3104,31 +3104,31 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.9</v>
-      </c>
       <c r="I15" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="K15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L15" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>1.11</v>
@@ -3137,16 +3137,16 @@
         <v>6.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S15" t="n">
         <v>1.62</v>
@@ -3155,25 +3155,25 @@
         <v>2.2</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
@@ -3185,49 +3185,49 @@
         <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
         <v>81</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>41</v>
       </c>
-      <c r="AM15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>67</v>
-      </c>
       <c r="AR15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT15" t="n">
         <v>2.2</v>
@@ -3239,19 +3239,19 @@
         <v>81</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB15" t="n">
         <v>351</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>KYxHcrE6</t>
+          <t>0Mk66xgo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,59 +3276,59 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="H16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I16" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S16" t="n">
         <v>1.62</v>
@@ -3343,19 +3343,19 @@
         <v>1.57</v>
       </c>
       <c r="W16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
@@ -3373,43 +3373,43 @@
         <v>81</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AK16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL16" t="n">
         <v>41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>51</v>
       </c>
       <c r="AM16" t="n">
         <v>1250</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO16" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT16" t="n">
         <v>2.2</v>
@@ -3421,34 +3421,34 @@
         <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AX16" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AY16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB16" t="n">
         <v>351</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0Mk66xgo</t>
+          <t>tYtqElCi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3468,157 +3468,157 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.55</v>
+        <v>1.42</v>
       </c>
       <c r="H17" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="S17" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="T17" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="n">
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AG17" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="AK17" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AL17" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AM17" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR17" t="n">
         <v>51</v>
       </c>
-      <c r="AR17" t="n">
-        <v>101</v>
-      </c>
       <c r="AS17" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
         <v>81</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AY17" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AZ17" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BA17" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BB17" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC17" t="n">
         <v>51</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tYtqElCi</t>
+          <t>ANuASNdn</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,354 +3640,172 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="O18" t="n">
         <v>1.42</v>
       </c>
-      <c r="H18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.4</v>
-      </c>
       <c r="P18" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R18" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="U18" t="n">
-        <v>2.63</v>
+        <v>1.93</v>
       </c>
       <c r="V18" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="W18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.5</v>
+        <v>30</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>6.7</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>10.25</v>
       </c>
       <c r="AJ18" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="AU18" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="AV18" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW18" t="n">
-        <v>9</v>
+        <v>4.25</v>
       </c>
       <c r="AX18" t="n">
-        <v>41</v>
+        <v>13.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="AZ18" t="n">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="BA18" t="n">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="BB18" t="n">
-        <v>501</v>
+        <v>350</v>
       </c>
       <c r="BC18" t="n">
         <v>51</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ANuASNdn</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W19" t="n">
-        <v>7</v>
-      </c>
-      <c r="X19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD19" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6uvINgGP</t>
+          <t>hxzEOZ0J</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,97 +920,97 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Brusque</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W3" t="n">
         <v>6.5</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
@@ -1022,37 +1022,37 @@
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
         <v>5.5</v>
@@ -1061,16 +1061,16 @@
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hxzEOZ0J</t>
+          <t>f1bLNB0J</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,49 +1102,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1153,25 +1153,25 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X4" t="n">
         <v>6.5</v>
       </c>
-      <c r="X4" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
@@ -1180,49 +1180,49 @@
         <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK4" t="n">
         <v>51</v>
       </c>
-      <c r="AG4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
         <v>201</v>
@@ -1231,28 +1231,28 @@
         <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>f1bLNB0J</t>
+          <t>M7QCc5bd</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>6.25</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="X5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AT5" t="n">
         <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M7QCc5bd</t>
+          <t>p8YvIZqB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.95</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.02</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T6" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="W6" t="n">
-        <v>6.4</v>
+        <v>9.25</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
         <v>32</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="AH6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK6" t="n">
         <v>19</v>
       </c>
-      <c r="AI6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>35</v>
-      </c>
       <c r="AL6" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.75</v>
+        <v>16</v>
       </c>
       <c r="AP6" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AR6" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AS6" t="n">
         <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="AV6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA6" t="n">
         <v>70</v>
       </c>
-      <c r="AW6" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>150</v>
-      </c>
       <c r="BB6" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>p8YvIZqB</t>
+          <t>4MhaUsOk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,167 +1638,167 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W7" t="n">
         <v>8</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W7" t="n">
-        <v>9.25</v>
-      </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="AN7" t="n">
         <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4MhaUsOk</t>
+          <t>8j7TZ30S</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,73 +1830,73 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" t="n">
+      <c r="T8" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="n">
         <v>34</v>
@@ -1905,40 +1905,40 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD8" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
         <v>21</v>
@@ -1953,34 +1953,34 @@
         <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8j7TZ30S</t>
+          <t>CODKyQVF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,70 +2012,70 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.4</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.05</v>
       </c>
-      <c r="J9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
         <v>41</v>
@@ -2093,43 +2093,43 @@
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
         <v>6.5</v>
       </c>
       <c r="AH9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI9" t="n">
         <v>9</v>
       </c>
-      <c r="AI9" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="n">
         <v>34</v>
       </c>
       <c r="AQ9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR9" t="n">
         <v>101</v>
@@ -2138,7 +2138,7 @@
         <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
@@ -2147,10 +2147,10 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>23</v>
@@ -2159,7 +2159,7 @@
         <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
         <v>201</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CODKyQVF</t>
+          <t>4vIbqhgd</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,47 +2184,47 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -2233,10 +2233,10 @@
         <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2245,118 +2245,118 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
         <v>10</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
         <v>21</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
         <v>15</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP10" t="n">
         <v>23</v>
       </c>
-      <c r="AP10" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4vIbqhgd</t>
+          <t>b1wYci8k</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,157 +2376,157 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.1</v>
       </c>
-      <c r="L11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="U11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y11" t="n">
         <v>10</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P11" t="n">
+      <c r="Z11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN11" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W11" t="n">
-        <v>7</v>
-      </c>
-      <c r="X11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AO11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY11" t="n">
         <v>51</v>
       </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
+      <c r="AZ11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA11" t="n">
         <v>301</v>
       </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>101</v>
-      </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>b1wYci8k</t>
+          <t>rPTkoEOq</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,160 +2558,160 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>17</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
         <v>6</v>
       </c>
-      <c r="J12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L12" t="n">
-        <v>7</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="X12" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AX12" t="n">
         <v>21</v>
       </c>
-      <c r="AB12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AY12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB12" t="n">
         <v>126</v>
       </c>
-      <c r="AG12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS12" t="n">
+      <c r="BC12" t="n">
         <v>351</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>81</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>rPTkoEOq</t>
+          <t>Ay5p7eo3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,160 +2740,160 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J13" t="n">
         <v>4</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P13" t="n">
         <v>2.38</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="Q13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7</v>
+      </c>
+      <c r="X13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW13" t="n">
         <v>4.33</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="AX13" t="n">
         <v>17</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="AY13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA13" t="n">
         <v>101</v>
       </c>
-      <c r="AT13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>67</v>
-      </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC13" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ay5p7eo3</t>
+          <t>KYxHcrE6</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,31 +2922,31 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H14" t="n">
         <v>3</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.9</v>
-      </c>
       <c r="I14" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L14" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>1.11</v>
@@ -2973,25 +2973,25 @@
         <v>2.2</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
         <v>41</v>
@@ -3003,49 +3003,49 @@
         <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
         <v>81</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>41</v>
       </c>
-      <c r="AM14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>67</v>
-      </c>
       <c r="AR14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS14" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT14" t="n">
         <v>2.2</v>
@@ -3057,19 +3057,19 @@
         <v>81</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB14" t="n">
         <v>351</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KYxHcrE6</t>
+          <t>0Mk66xgo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,59 +3094,59 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="H15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I15" t="n">
         <v>3</v>
       </c>
-      <c r="I15" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J15" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P15" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R15" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
         <v>1.62</v>
@@ -3161,19 +3161,19 @@
         <v>1.57</v>
       </c>
       <c r="W15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
@@ -3191,43 +3191,43 @@
         <v>81</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL15" t="n">
         <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>51</v>
       </c>
       <c r="AM15" t="n">
         <v>1250</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT15" t="n">
         <v>2.2</v>
@@ -3239,34 +3239,34 @@
         <v>81</v>
       </c>
       <c r="AW15" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB15" t="n">
         <v>351</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0Mk66xgo</t>
+          <t>tYtqElCi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3286,157 +3286,157 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.55</v>
+        <v>1.42</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AG16" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AL16" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AM16" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AP16" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR16" t="n">
         <v>51</v>
       </c>
-      <c r="AR16" t="n">
-        <v>101</v>
-      </c>
       <c r="AS16" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
         <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="AX16" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AY16" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AZ16" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BA16" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BB16" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC16" t="n">
         <v>51</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tYtqElCi</t>
+          <t>ANuASNdn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,354 +3458,172 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.42</v>
       </c>
-      <c r="H17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>10</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.4</v>
-      </c>
       <c r="P17" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R17" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
       </c>
       <c r="T17" t="n">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="U17" t="n">
-        <v>2.63</v>
+        <v>1.93</v>
       </c>
       <c r="V17" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="W17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5</v>
+        <v>30</v>
       </c>
       <c r="AA17" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="AE17" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>6.7</v>
       </c>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>23</v>
+        <v>10.25</v>
       </c>
       <c r="AJ17" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="AK17" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AS17" t="n">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="AV17" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW17" t="n">
-        <v>9</v>
+        <v>4.25</v>
       </c>
       <c r="AX17" t="n">
-        <v>41</v>
+        <v>13.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="AZ17" t="n">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="BA17" t="n">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="BB17" t="n">
-        <v>501</v>
+        <v>350</v>
       </c>
       <c r="BC17" t="n">
         <v>51</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ANuASNdn</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W18" t="n">
-        <v>7</v>
-      </c>
-      <c r="X18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD18" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
         <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -768,7 +768,7 @@
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -795,16 +795,16 @@
         <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
         <v>34</v>
@@ -825,7 +825,7 @@
         <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
         <v>12</v>
@@ -849,7 +849,7 @@
         <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -858,7 +858,7 @@
         <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS2" t="n">
         <v>501</v>
@@ -947,34 +947,34 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
@@ -989,13 +989,13 @@
         <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1004,7 +1004,7 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>9</v>
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1043,13 +1043,13 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
@@ -1135,16 +1135,16 @@
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1663,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -2039,16 +2039,16 @@
         <v>2.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
         <v>2.1</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2227,16 +2227,16 @@
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2245,25 +2245,25 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>29</v>
@@ -2281,19 +2281,19 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK10" t="n">
         <v>29</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>34</v>
@@ -2302,10 +2302,10 @@
         <v>251</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
@@ -2314,10 +2314,10 @@
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
         <v>2.63</v>
@@ -2329,16 +2329,16 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
         <v>81</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>1.13</v>
@@ -2436,13 +2436,13 @@
         <v>4.33</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
         <v>21</v>
@@ -2454,28 +2454,28 @@
         <v>5.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>29</v>
       </c>
       <c r="AF11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
         <v>81</v>
@@ -2484,16 +2484,16 @@
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>81</v>
@@ -2505,13 +2505,13 @@
         <v>2.1</v>
       </c>
       <c r="AU11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV11" t="n">
         <v>101</v>
       </c>
       <c r="AW11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX11" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -768,7 +768,7 @@
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -947,22 +947,22 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1675,10 +1675,10 @@
         <v>3.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -2021,19 +2021,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J9" t="n">
         <v>4.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
         <v>2.6</v>
@@ -2042,13 +2042,13 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
         <v>2.1</v>
@@ -2069,7 +2069,7 @@
         <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
         <v>21</v>
@@ -2081,7 +2081,7 @@
         <v>41</v>
       </c>
       <c r="AA9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -2102,7 +2102,7 @@
         <v>6.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
         <v>9</v>
@@ -2150,19 +2150,19 @@
         <v>3.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
         <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA9" t="n">
         <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2221,10 +2221,10 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
@@ -2409,10 +2409,10 @@
         <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q11" t="n">
         <v>2.88</v>
@@ -2579,7 +2579,7 @@
         <v>2.38</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L12" t="n">
         <v>4.33</v>
@@ -2669,7 +2669,7 @@
         <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP12" t="n">
         <v>17</v>
@@ -2708,7 +2708,7 @@
         <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
         <v>351</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M13" t="n">
         <v>1.11</v>
@@ -2830,13 +2830,13 @@
         <v>6</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>11</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>26</v>
@@ -2878,10 +2878,10 @@
         <v>4.33</v>
       </c>
       <c r="AX13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
         <v>51</v>
@@ -2890,7 +2890,7 @@
         <v>101</v>
       </c>
       <c r="BB13" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2955,16 +2955,16 @@
         <v>6.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
         <v>1.62</v>
@@ -3116,55 +3116,55 @@
         <v>2.55</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
         <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L15" t="n">
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S15" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W15" t="n">
         <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
         <v>11</v>
@@ -3173,13 +3173,13 @@
         <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -3197,16 +3197,16 @@
         <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM15" t="n">
         <v>1250</v>
@@ -3230,10 +3230,10 @@
         <v>351</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
         <v>81</v>
@@ -3242,10 +3242,10 @@
         <v>4.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,16 +777,16 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T2" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -965,10 +965,10 @@
         <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
@@ -1004,7 +1004,7 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
         <v>9</v>
@@ -1043,10 +1043,10 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1672,13 +1672,13 @@
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1714,7 +1714,7 @@
         <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="n">
         <v>34</v>
@@ -1729,7 +1729,7 @@
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
@@ -1738,16 +1738,16 @@
         <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
         <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
@@ -1771,7 +1771,7 @@
         <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT7" t="n">
         <v>2.25</v>
@@ -1783,10 +1783,10 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4vIbqhgd</t>
+          <t>rPTkoEOq</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,97 +2194,97 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T10" t="n">
         <v>3.4</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
         <v>15</v>
       </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10</v>
-      </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
@@ -2296,58 +2296,58 @@
         <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AN10" t="n">
         <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY10" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>29</v>
       </c>
       <c r="AZ10" t="n">
         <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>b1wYci8k</t>
+          <t>Ay5p7eo3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,31 +2376,31 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.13</v>
@@ -2409,124 +2409,124 @@
         <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
-        <v>4.33</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH11" t="n">
         <v>10</v>
       </c>
-      <c r="Z11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>26</v>
-      </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AJ11" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="n">
         <v>351</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="AX11" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AY11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>51</v>
       </c>
-      <c r="AZ11" t="n">
-        <v>201</v>
-      </c>
       <c r="BA11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB11" t="n">
         <v>301</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>501</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>rPTkoEOq</t>
+          <t>KYxHcrE6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,160 +2558,160 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
         <v>17</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="AA12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU12" t="n">
         <v>9.5</v>
       </c>
-      <c r="X12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV12" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
         <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC12" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ay5p7eo3</t>
+          <t>0Mk66xgo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,83 +2730,83 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.1</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.5</v>
-      </c>
       <c r="J13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L13" t="n">
         <v>4</v>
       </c>
-      <c r="K13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N13" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.53</v>
       </c>
-      <c r="P13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA13" t="n">
         <v>29</v>
@@ -2815,49 +2815,49 @@
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>81</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM13" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP13" t="n">
         <v>34</v>
       </c>
       <c r="AQ13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="n">
         <v>101</v>
@@ -2866,43 +2866,43 @@
         <v>351</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV13" t="n">
         <v>81</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC13" t="n">
         <v>51</v>
       </c>
-      <c r="BA13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>81</v>
-      </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KYxHcrE6</t>
+          <t>tYtqElCi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>1.42</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
         <v>2.75</v>
       </c>
-      <c r="K14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="Q14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W14" t="n">
         <v>5</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>5.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>8</v>
       </c>
       <c r="Y14" t="n">
         <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="n">
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AF14" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR14" t="n">
         <v>51</v>
       </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>81</v>
-      </c>
       <c r="AS14" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU14" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
         <v>81</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX14" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AY14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ14" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BA14" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BB14" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0Mk66xgo</t>
+          <t>ANuASNdn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,536 +3094,172 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L15" t="n">
         <v>3.1</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4</v>
-      </c>
       <c r="M15" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>5.5</v>
+        <v>5.95</v>
       </c>
       <c r="O15" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="P15" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.1</v>
+        <v>2.22</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="U15" t="n">
-        <v>2.38</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="W15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AH15" t="n">
         <v>11</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AI15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>26</v>
       </c>
-      <c r="AA15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>34</v>
-      </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AR15" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AS15" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AV15" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AZ15" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="BA15" t="n">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="BB15" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="BC15" t="n">
         <v>51</v>
       </c>
       <c r="BD15" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>tYtqElCi</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Penarol</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W16" t="n">
-        <v>5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ANuASNdn</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W17" t="n">
-        <v>7</v>
-      </c>
-      <c r="X17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD17" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
         <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -768,7 +768,7 @@
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -795,16 +795,16 @@
         <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
         <v>34</v>
@@ -825,7 +825,7 @@
         <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH2" t="n">
         <v>12</v>
@@ -849,7 +849,7 @@
         <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -858,7 +858,7 @@
         <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS2" t="n">
         <v>501</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1869,10 +1869,10 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -2233,10 +2233,10 @@
         <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S10" t="n">
         <v>1.3</v>
@@ -2272,7 +2272,7 @@
         <v>15</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -2284,7 +2284,7 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
@@ -2341,7 +2341,7 @@
         <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
         <v>151</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -2400,7 +2400,7 @@
         <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.13</v>
@@ -2409,22 +2409,22 @@
         <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U11" t="n">
         <v>2.2</v>
@@ -2436,13 +2436,13 @@
         <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
         <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="n">
         <v>34</v>
@@ -2460,19 +2460,19 @@
         <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="n">
         <v>6</v>
       </c>
       <c r="AH11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI11" t="n">
         <v>10</v>
       </c>
-      <c r="AI11" t="n">
-        <v>11</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>23</v>
@@ -2487,7 +2487,7 @@
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
         <v>34</v>
@@ -2496,13 +2496,13 @@
         <v>67</v>
       </c>
       <c r="AR11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS11" t="n">
         <v>351</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU11" t="n">
         <v>9.5</v>
@@ -2585,10 +2585,10 @@
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -2597,10 +2597,10 @@
         <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
         <v>1.62</v>
@@ -2773,10 +2773,10 @@
         <v>5.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
         <v>3.1</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -947,10 +947,10 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -965,10 +965,10 @@
         <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
@@ -1004,7 +1004,7 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>9</v>
@@ -1043,10 +1043,10 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1675,10 +1675,10 @@
         <v>3.1</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1857,22 +1857,22 @@
         <v>2.88</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -2391,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -2403,10 +2403,10 @@
         <v>3.2</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -2427,13 +2427,13 @@
         <v>2.25</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
         <v>15</v>
@@ -2442,7 +2442,7 @@
         <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
         <v>34</v>
@@ -2451,7 +2451,7 @@
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
@@ -2466,7 +2466,7 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
@@ -2505,7 +2505,7 @@
         <v>2.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
         <v>81</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
         <v>2.75</v>
       </c>
       <c r="K12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L12" t="n">
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -2603,16 +2603,16 @@
         <v>1.5</v>
       </c>
       <c r="S12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.62</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.57</v>
       </c>
       <c r="W12" t="n">
         <v>5.5</v>
@@ -2624,28 +2624,28 @@
         <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>81</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2669,22 +2669,22 @@
         <v>3.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU12" t="n">
         <v>9.5</v>
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
         <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>1.8</v>
@@ -2785,25 +2785,25 @@
         <v>1.36</v>
       </c>
       <c r="S13" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
         <v>26</v>
@@ -2812,22 +2812,22 @@
         <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD13" t="n">
         <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH13" t="n">
         <v>13</v>
@@ -2851,28 +2851,28 @@
         <v>4.33</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS13" t="n">
         <v>351</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW13" t="n">
         <v>4.75</v>
@@ -2884,10 +2884,10 @@
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB13" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hxzEOZ0J</t>
+          <t>ljQBUZqC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,131 +910,131 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD3" t="n">
         <v>6.5</v>
       </c>
-      <c r="X3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI3" t="n">
         <v>21</v>
       </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AJ3" t="n">
         <v>67</v>
       </c>
-      <c r="AG3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>41</v>
-      </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1043,46 +1043,40 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>81</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>f1bLNB0J</t>
+          <t>AczWZULi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,110 +1086,110 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG4" t="n">
         <v>8</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>13</v>
-      </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>67</v>
@@ -1204,67 +1198,59 @@
         <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>81</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M7QCc5bd</t>
+          <t>fkhqCRTp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1260,173 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>San Martin T.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>7.5</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE5" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AH5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI5" t="n">
         <v>19</v>
       </c>
-      <c r="AI5" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="n">
-        <v>800</v>
+        <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="BA5" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>51</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>p8YvIZqB</t>
+          <t>fBX7P6kC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1436,175 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>GV San Jose</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>3.05</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="K6" t="n">
-        <v>2.07</v>
+        <v>2.63</v>
       </c>
       <c r="L6" t="n">
-        <v>2.82</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU6" t="n">
         <v>8</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="X6" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AV6" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.25</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>11.75</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>51</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4MhaUsOk</t>
+          <t>hxzEOZ0J</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,41 +1614,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1681,100 +1657,100 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
         <v>34</v>
       </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
       <c r="AC7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
         <v>67</v>
       </c>
-      <c r="AR7" t="n">
-        <v>101</v>
-      </c>
       <c r="AS7" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1783,34 +1759,34 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC7" t="n">
         <v>81</v>
       </c>
-      <c r="BB7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8j7TZ30S</t>
+          <t>f1bLNB0J</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,59 +1796,59 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.05</v>
+        <v>6.25</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>2.88</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1881,118 +1857,118 @@
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
         <v>34</v>
       </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>351</v>
+        <v>1250</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
         <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CODKyQVF</t>
+          <t>M7QCc5bd</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,167 +1978,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>1.93</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>1.85</v>
+        <v>3.65</v>
       </c>
       <c r="J9" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y9" t="n">
         <v>8.5</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>11</v>
-      </c>
-      <c r="X9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>15</v>
-      </c>
       <c r="Z9" t="n">
-        <v>41</v>
+        <v>16.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>41</v>
+        <v>16.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AG9" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AM9" t="n">
-        <v>351</v>
+        <v>800</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>23</v>
+        <v>9.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="AR9" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.52</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.75</v>
+        <v>5.4</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2150,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rPTkoEOq</t>
+          <t>p8YvIZqB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2160,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>3.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>2.82</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>4.5</v>
+        <v>2.92</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="T10" t="n">
-        <v>3.4</v>
+        <v>2.47</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="W10" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AR10" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV10" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>4.25</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>11.75</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="BC10" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ay5p7eo3</t>
+          <t>4MhaUsOk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,22 +2342,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -2400,13 +2376,13 @@
         <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -2415,10 +2391,10 @@
         <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
         <v>1.57</v>
@@ -2442,7 +2418,7 @@
         <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="n">
         <v>34</v>
@@ -2466,7 +2442,7 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
@@ -2475,7 +2451,7 @@
         <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
@@ -2496,7 +2472,7 @@
         <v>67</v>
       </c>
       <c r="AR11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="n">
         <v>351</v>
@@ -2508,13 +2484,13 @@
         <v>9</v>
       </c>
       <c r="AV11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY11" t="n">
         <v>29</v>
@@ -2526,19 +2502,19 @@
         <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KYxHcrE6</t>
+          <t>8j7TZ30S</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2553,174 +2529,174 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.5</v>
       </c>
-      <c r="P12" t="n">
+      <c r="T12" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD12" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI12" t="n">
         <v>9.5</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AJ12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>21</v>
       </c>
-      <c r="AI12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="n">
         <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>41</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>101</v>
-      </c>
       <c r="BA12" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0Mk66xgo</t>
+          <t>CODKyQVF</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,167 +2706,167 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
         <v>2.6</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.8</v>
       </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W13" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AA13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="n">
         <v>29</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AM13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA13" t="n">
         <v>51</v>
       </c>
-      <c r="AC13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA13" t="n">
+      <c r="BB13" t="n">
         <v>151</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>351</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
@@ -2902,7 +2878,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tYtqElCi</t>
+          <t>rPTkoEOq</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,354 +2888,1260 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P14" t="n">
         <v>4.5</v>
       </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="Q14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
         <v>8.5</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W14" t="n">
-        <v>5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AP14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR14" t="n">
         <v>41</v>
       </c>
-      <c r="AC14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AS14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY14" t="n">
         <v>23</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK14" t="n">
+      <c r="AZ14" t="n">
         <v>67</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="BA14" t="n">
         <v>67</v>
       </c>
-      <c r="AM14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV14" t="n">
+      <c r="BB14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD14" t="n">
         <v>81</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Ay5p7eo3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>KYxHcrE6</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0Mk66xgo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>tYtqElCi</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>9</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WxUIQ1Rb</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Estudiantes Merida</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>ANuASNdn</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>17/11/2024</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Monagas</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>La Guaira</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G20" t="n">
         <v>2.67</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H20" t="n">
         <v>3.15</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I20" t="n">
         <v>2.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J20" t="n">
         <v>3.3</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K20" t="n">
         <v>2.02</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L20" t="n">
         <v>3.1</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M20" t="n">
         <v>1.05</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N20" t="n">
         <v>5.95</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O20" t="n">
         <v>1.42</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P20" t="n">
         <v>2.45</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q20" t="n">
         <v>2.22</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R20" t="n">
         <v>1.52</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S20" t="n">
         <v>1.44</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T20" t="n">
         <v>2.42</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U20" t="n">
         <v>1.93</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V20" t="n">
         <v>1.7</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W20" t="n">
         <v>7</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X20" t="n">
         <v>12</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y20" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z20" t="n">
         <v>30</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA20" t="n">
         <v>26</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB20" t="n">
         <v>45</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC20" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD20" t="n">
         <v>6.2</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE20" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF20" t="n">
         <v>100</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG20" t="n">
         <v>6.7</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH20" t="n">
         <v>11</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI20" t="n">
         <v>10.25</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ20" t="n">
         <v>26</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK20" t="n">
         <v>24</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL20" t="n">
         <v>40</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM20" t="n">
         <v>900</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN20" t="n">
         <v>4.4</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO20" t="n">
         <v>14.5</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP20" t="n">
         <v>25</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ20" t="n">
         <v>65</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR20" t="n">
         <v>120</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS20" t="n">
         <v>350</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT20" t="n">
         <v>2.4</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU20" t="n">
         <v>7.6</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV20" t="n">
         <v>80</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW20" t="n">
         <v>4.25</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AX20" t="n">
         <v>13.5</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="AY20" t="n">
         <v>24</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="AZ20" t="n">
         <v>60</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BA20" t="n">
         <v>110</v>
       </c>
-      <c r="BB15" t="n">
+      <c r="BB20" t="n">
         <v>350</v>
       </c>
-      <c r="BC15" t="n">
+      <c r="BC20" t="n">
         <v>51</v>
       </c>
-      <c r="BD15" t="n">
+      <c r="BD20" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -1282,10 +1282,10 @@
         <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
         <v>2.6</v>
@@ -1300,7 +1300,7 @@
         <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O5" t="n">
         <v>1.73</v>
@@ -1345,28 +1345,28 @@
         <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
         <v>151</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="n">
         <v>67</v>
@@ -1833,10 +1833,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -2907,22 +2907,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
         <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J14" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K14" t="n">
         <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2931,16 +2931,16 @@
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S14" t="n">
         <v>1.3</v>
@@ -2949,16 +2949,16 @@
         <v>3.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
+        <v>9</v>
+      </c>
+      <c r="X14" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>10</v>
       </c>
       <c r="Y14" t="n">
         <v>8.5</v>
@@ -2988,7 +2988,7 @@
         <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -3000,7 +3000,7 @@
         <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
         <v>151</v>
@@ -3009,13 +3009,13 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
         <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
@@ -3033,19 +3033,19 @@
         <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX14" t="n">
         <v>21</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
         <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
         <v>151</v>
@@ -3089,13 +3089,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
@@ -3104,40 +3104,40 @@
         <v>1.91</v>
       </c>
       <c r="L15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R15" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>15</v>
@@ -3155,7 +3155,7 @@
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -3164,7 +3164,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG15" t="n">
         <v>6</v>
@@ -3173,10 +3173,10 @@
         <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK15" t="n">
         <v>23</v>
@@ -3206,10 +3206,10 @@
         <v>351</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV15" t="n">
         <v>81</v>
@@ -3459,7 +3459,7 @@
         <v>2.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
@@ -3471,10 +3471,10 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
         <v>1.67</v>
@@ -3525,13 +3525,13 @@
         <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>101</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH17" t="n">
         <v>13</v>
@@ -3555,10 +3555,10 @@
         <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ17" t="n">
         <v>67</v>
@@ -3573,7 +3573,7 @@
         <v>2</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
         <v>101</v>
@@ -3588,10 +3588,10 @@
         <v>41</v>
       </c>
       <c r="AZ17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
         <v>351</v>
@@ -3635,22 +3635,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H18" t="n">
         <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.08</v>
@@ -3716,10 +3716,10 @@
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
         <v>101</v>
@@ -3728,7 +3728,7 @@
         <v>67</v>
       </c>
       <c r="AL18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM18" t="n">
         <v>201</v>
@@ -3740,10 +3740,10 @@
         <v>7</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR18" t="n">
         <v>51</v>
@@ -3761,19 +3761,19 @@
         <v>101</v>
       </c>
       <c r="AW18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY18" t="n">
         <v>51</v>
       </c>
       <c r="AZ18" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA18" t="n">
         <v>301</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>351</v>
       </c>
       <c r="BB18" t="n">
         <v>501</v>
@@ -3817,28 +3817,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L19" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>9.75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O19" t="n">
         <v>1.27</v>
@@ -3847,7 +3847,7 @@
         <v>3.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R19" t="n">
         <v>1.85</v>
@@ -3865,49 +3865,49 @@
         <v>1.98</v>
       </c>
       <c r="W19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y19" t="n">
         <v>10.5</v>
       </c>
-      <c r="X19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>11</v>
-      </c>
       <c r="Z19" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB19" t="n">
         <v>32</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AE19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>55</v>
       </c>
       <c r="AG19" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AH19" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI19" t="n">
         <v>8.75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL19" t="n">
         <v>26</v>
@@ -3916,43 +3916,43 @@
         <v>400</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR19" t="n">
         <v>110</v>
       </c>
       <c r="AS19" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AU19" t="n">
         <v>6.8</v>
       </c>
       <c r="AV19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="AX19" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AY19" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ19" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA19" t="n">
         <v>75</v>
@@ -3995,22 +3995,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="H20" t="n">
         <v>3.15</v>
       </c>
       <c r="I20" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
         <v>2.02</v>
       </c>
       <c r="L20" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -4022,10 +4022,10 @@
         <v>1.42</v>
       </c>
       <c r="P20" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
         <v>1.52</v>
@@ -4043,70 +4043,70 @@
         <v>1.7</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z20" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC20" t="n">
         <v>7.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
         <v>100</v>
       </c>
       <c r="AG20" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AI20" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK20" t="n">
         <v>26</v>
       </c>
-      <c r="AK20" t="n">
-        <v>24</v>
-      </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="n">
         <v>900</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO20" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS20" t="n">
         <v>350</v>
@@ -4115,22 +4115,22 @@
         <v>2.4</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="AX20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AY20" t="n">
         <v>24</v>
       </c>
       <c r="AZ20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA20" t="n">
         <v>110</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -1473,10 +1473,10 @@
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1651,10 +1651,10 @@
         <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1663,16 +1663,16 @@
         <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
@@ -1708,7 +1708,7 @@
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
         <v>9</v>
@@ -1747,10 +1747,10 @@
         <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1997,22 +1997,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H9" t="n">
         <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L9" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
@@ -2024,7 +2024,7 @@
         <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
@@ -2033,10 +2033,10 @@
         <v>1.65</v>
       </c>
       <c r="S9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U9" t="n">
         <v>1.85</v>
@@ -2045,19 +2045,19 @@
         <v>1.75</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X9" t="n">
         <v>8.75</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
         <v>32</v>
@@ -2075,19 +2075,19 @@
         <v>90</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL9" t="n">
         <v>45</v>
@@ -2099,37 +2099,37 @@
         <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS9" t="n">
         <v>250</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV9" t="n">
         <v>70</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AX9" t="n">
         <v>20</v>
       </c>
       <c r="AY9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ9" t="n">
         <v>110</v>
@@ -2138,7 +2138,7 @@
         <v>150</v>
       </c>
       <c r="BB9" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2725,22 +2725,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J13" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
@@ -2767,10 +2767,10 @@
         <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W13" t="n">
         <v>11</v>
@@ -2782,7 +2782,7 @@
         <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA13" t="n">
         <v>41</v>
@@ -2815,7 +2815,7 @@
         <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
         <v>29</v>
@@ -2827,7 +2827,7 @@
         <v>6</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP13" t="n">
         <v>34</v>
@@ -2836,10 +2836,10 @@
         <v>81</v>
       </c>
       <c r="AR13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS13" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT13" t="n">
         <v>2.63</v>
@@ -2907,22 +2907,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="J14" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K14" t="n">
         <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2931,16 +2931,16 @@
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S14" t="n">
         <v>1.3</v>
@@ -2949,22 +2949,22 @@
         <v>3.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
         <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>13</v>
@@ -2976,10 +2976,10 @@
         <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
@@ -2988,7 +2988,7 @@
         <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -3000,22 +3000,22 @@
         <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN14" t="n">
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP14" t="n">
         <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR14" t="n">
         <v>41</v>
@@ -3033,19 +3033,19 @@
         <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA14" t="n">
         <v>67</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>81</v>
       </c>
       <c r="BB14" t="n">
         <v>151</v>
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
         <v>2.9</v>
@@ -3101,7 +3101,7 @@
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L15" t="n">
         <v>3.25</v>
@@ -3113,16 +3113,16 @@
         <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
         <v>1.62</v>
@@ -3131,10 +3131,10 @@
         <v>2.2</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W15" t="n">
         <v>7.5</v>
@@ -3152,10 +3152,10 @@
         <v>34</v>
       </c>
       <c r="AB15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -3179,7 +3179,7 @@
         <v>23</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>41</v>
@@ -3221,16 +3221,16 @@
         <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ15" t="n">
         <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3471,10 +3471,10 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.67</v>
@@ -3483,16 +3483,16 @@
         <v>2.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
         <v>1.73</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U17" t="n">
         <v>2.5</v>
@@ -3817,22 +3817,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
@@ -3841,52 +3841,52 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q19" t="n">
         <v>1.87</v>
       </c>
       <c r="R19" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T19" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="U19" t="n">
         <v>1.65</v>
       </c>
       <c r="V19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>9.5</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z19" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB19" t="n">
         <v>32</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
@@ -3907,34 +3907,34 @@
         <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM19" t="n">
         <v>400</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR19" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS19" t="n">
         <v>300</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU19" t="n">
         <v>6.8</v>
@@ -3943,22 +3943,22 @@
         <v>60</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AX19" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ19" t="n">
         <v>45</v>
       </c>
       <c r="BA19" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC19" t="inlineStr"/>
       <c r="BD19" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,10 +947,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -1467,16 +1467,16 @@
         <v>1.91</v>
       </c>
       <c r="K6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1503,7 +1503,7 @@
         <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
         <v>8.5</v>
@@ -1512,7 +1512,7 @@
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
         <v>11</v>
@@ -1563,7 +1563,7 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR6" t="n">
         <v>34</v>
@@ -1997,40 +1997,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="K9" t="n">
         <v>2.07</v>
       </c>
       <c r="L9" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
         <v>7.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
         <v>2.72</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2039,19 +2039,19 @@
         <v>2.52</v>
       </c>
       <c r="U9" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W9" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="X9" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
         <v>17</v>
@@ -2063,46 +2063,46 @@
         <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL9" t="n">
         <v>45</v>
       </c>
       <c r="AM9" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AN9" t="n">
         <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AP9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
         <v>37</v>
@@ -2114,22 +2114,22 @@
         <v>250</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AV9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
         <v>20</v>
       </c>
       <c r="AY9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
         <v>110</v>
@@ -2138,7 +2138,7 @@
         <v>150</v>
       </c>
       <c r="BB9" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2200,7 +2200,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
@@ -2457,7 +2457,7 @@
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN11" t="n">
         <v>5</v>
@@ -2878,7 +2878,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rPTkoEOq</t>
+          <t>KYxHcrE6</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2898,160 +2898,160 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="P14" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.62</v>
       </c>
-      <c r="R14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y14" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
         <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AH14" t="n">
         <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK14" t="n">
         <v>41</v>
       </c>
-      <c r="AK14" t="n">
-        <v>29</v>
-      </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>126</v>
+        <v>1250</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU14" t="n">
         <v>9.5</v>
       </c>
-      <c r="AP14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC14" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3060,7 +3060,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ay5p7eo3</t>
+          <t>0Mk66xgo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3070,128 +3070,128 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I15" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L15" t="n">
         <v>4</v>
       </c>
-      <c r="K15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.25</v>
-      </c>
       <c r="M15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P15" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T15" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="U15" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
         <v>51</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM15" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>34</v>
@@ -3206,43 +3206,43 @@
         <v>351</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB15" t="n">
         <v>351</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>KYxHcrE6</t>
+          <t>tYtqElCi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3252,179 +3252,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>1.42</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P16" t="n">
         <v>2.75</v>
       </c>
-      <c r="K16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="Q16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W16" t="n">
         <v>5</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>5.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>8</v>
       </c>
       <c r="Y16" t="n">
         <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR16" t="n">
         <v>51</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>67</v>
       </c>
       <c r="AS16" t="n">
         <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX16" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AY16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ16" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BA16" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BB16" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0Mk66xgo</t>
+          <t>WxUIQ1Rb</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3434,179 +3434,175 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L17" t="n">
         <v>2.8</v>
       </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4</v>
-      </c>
       <c r="M17" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>1.67</v>
+        <v>1.28</v>
       </c>
       <c r="P17" t="n">
-        <v>2.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.4</v>
+        <v>1.87</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>1.73</v>
+        <v>1.39</v>
       </c>
       <c r="T17" t="n">
-        <v>2.08</v>
+        <v>2.55</v>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB17" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AC17" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN17" t="n">
         <v>5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AQ17" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AR17" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AS17" t="n">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="AT17" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="AV17" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.75</v>
+        <v>4.15</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>41</v>
+        <v>18.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="BA17" t="n">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="BB17" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>51</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tYtqElCi</t>
+          <t>ANuASNdn</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3616,532 +3612,172 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O18" t="n">
         <v>1.42</v>
       </c>
-      <c r="H18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>8</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.4</v>
-      </c>
       <c r="P18" t="n">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R18" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="S18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="U18" t="n">
-        <v>2.63</v>
+        <v>1.93</v>
       </c>
       <c r="V18" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="W18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>6.1</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>11.25</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>10.25</v>
       </c>
       <c r="AJ18" t="n">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="AK18" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="AU18" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="AV18" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AW18" t="n">
-        <v>9</v>
+        <v>4.25</v>
       </c>
       <c r="AX18" t="n">
-        <v>41</v>
+        <v>13.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="AZ18" t="n">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="BA18" t="n">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="BB18" t="n">
-        <v>501</v>
+        <v>350</v>
       </c>
       <c r="BC18" t="n">
         <v>51</v>
       </c>
       <c r="BD18" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>WxUIQ1Rb</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Estudiantes Merida</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Carabobo</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2</v>
-      </c>
-      <c r="W19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>70</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ANuASNdn</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="X20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>65</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD20" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
         <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -762,7 +762,7 @@
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
@@ -795,7 +795,7 @@
         <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -828,13 +828,13 @@
         <v>5.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
@@ -855,7 +855,7 @@
         <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="n">
         <v>151</v>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
@@ -1633,22 +1633,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1681,25 +1681,25 @@
         <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
@@ -1708,37 +1708,37 @@
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
@@ -1759,19 +1759,19 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
         <v>301</v>
@@ -1815,28 +1815,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1857,22 +1857,22 @@
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
@@ -1884,25 +1884,25 @@
         <v>7.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
@@ -1914,10 +1914,10 @@
         <v>1250</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="AX8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -2391,10 +2391,10 @@
         <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
         <v>1.57</v>
@@ -2743,10 +2743,10 @@
         <v>2.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>1.33</v>
@@ -2925,13 +2925,13 @@
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
         <v>2.5</v>
@@ -2940,7 +2940,7 @@
         <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
         <v>1.57</v>
@@ -3631,28 +3631,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="H18" t="n">
         <v>3.15</v>
       </c>
       <c r="I18" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
         <v>2.02</v>
       </c>
       <c r="L18" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>5.9</v>
+        <v>5.95</v>
       </c>
       <c r="O18" t="n">
         <v>1.42</v>
@@ -3679,28 +3679,28 @@
         <v>1.7</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z18" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB18" t="n">
         <v>45</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE18" t="n">
         <v>17.5</v>
@@ -3709,19 +3709,19 @@
         <v>100</v>
       </c>
       <c r="AG18" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AH18" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI18" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
         <v>40</v>
@@ -3730,22 +3730,22 @@
         <v>900</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR18" t="n">
         <v>120</v>
       </c>
       <c r="AS18" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT18" t="n">
         <v>2.37</v>
@@ -3757,16 +3757,16 @@
         <v>80</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="AX18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY18" t="n">
         <v>24</v>
       </c>
       <c r="AZ18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA18" t="n">
         <v>110</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,10 +750,10 @@
         <v>3</v>
       </c>
       <c r="H2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.75</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.88</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -768,7 +768,7 @@
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -831,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>29</v>
@@ -846,7 +846,7 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -873,10 +873,10 @@
         <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -885,7 +885,7 @@
         <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -1461,7 +1461,7 @@
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.91</v>
@@ -1485,10 +1485,10 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
         <v>1.25</v>
@@ -1509,7 +1509,7 @@
         <v>8.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
         <v>11</v>
@@ -1533,7 +1533,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
@@ -1633,22 +1633,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
         <v>4.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1663,10 +1663,10 @@
         <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -1684,16 +1684,16 @@
         <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
@@ -1708,13 +1708,13 @@
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1732,13 +1732,13 @@
         <v>1250</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
@@ -1759,7 +1759,7 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX7" t="n">
         <v>23</v>
@@ -1815,28 +1815,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K8" t="n">
         <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1857,16 +1857,16 @@
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1884,25 +1884,25 @@
         <v>7.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
@@ -1914,10 +1914,10 @@
         <v>1250</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1938,22 +1938,22 @@
         <v>9.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
         <v>7</v>
       </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB8" t="n">
         <v>351</v>
@@ -1968,7 +1968,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M7QCc5bd</t>
+          <t>p8YvIZqB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1988,157 +1988,157 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>2.32</v>
       </c>
       <c r="J9" t="n">
-        <v>2.52</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>4.1</v>
+        <v>2.87</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T9" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="V9" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="W9" t="n">
-        <v>6.3</v>
+        <v>9.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AB9" t="n">
         <v>32</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF9" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH9" t="n">
+      <c r="AP9" t="n">
         <v>20</v>
       </c>
-      <c r="AI9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AR9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA9" t="n">
         <v>75</v>
       </c>
-      <c r="AS9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>110</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>150</v>
-      </c>
       <c r="BB9" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2150,7 +2150,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>p8YvIZqB</t>
+          <t>4MhaUsOk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2160,167 +2160,167 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>2.92</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="T10" t="n">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="AH10" t="n">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>450</v>
+        <v>1250</v>
       </c>
       <c r="AN10" t="n">
         <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2332,7 +2332,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4MhaUsOk</t>
+          <t>8j7TZ30S</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2352,70 +2352,70 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>3.4</v>
       </c>
       <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.5</v>
       </c>
-      <c r="P11" t="n">
+      <c r="T11" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
         <v>41</v>
@@ -2427,10 +2427,10 @@
         <v>41</v>
       </c>
       <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>19</v>
@@ -2439,28 +2439,28 @@
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI11" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI11" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
         <v>21</v>
@@ -2475,13 +2475,13 @@
         <v>101</v>
       </c>
       <c r="AS11" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
@@ -2490,19 +2490,19 @@
         <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2514,7 +2514,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8j7TZ30S</t>
+          <t>CODKyQVF</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2534,31 +2534,31 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2567,22 +2567,22 @@
         <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
@@ -2591,19 +2591,19 @@
         <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA12" t="n">
         <v>41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
@@ -2615,52 +2615,52 @@
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
         <v>6.5</v>
       </c>
       <c r="AH12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI12" t="n">
         <v>9</v>
       </c>
-      <c r="AI12" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
         <v>351</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AP12" t="n">
         <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
         <v>8.5</v>
@@ -2669,22 +2669,22 @@
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2696,7 +2696,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CODKyQVF</t>
+          <t>KYxHcrE6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2711,174 +2711,174 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>1.8</v>
+        <v>4.33</v>
       </c>
       <c r="J13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L13" t="n">
         <v>5</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P13" t="n">
         <v>2.5</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="n">
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>51</v>
       </c>
-      <c r="AG13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM13" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB13" t="n">
         <v>351</v>
       </c>
-      <c r="AN13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ13" t="n">
+      <c r="BC13" t="n">
         <v>81</v>
       </c>
-      <c r="AR13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>51</v>
-      </c>
       <c r="BD13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KYxHcrE6</t>
+          <t>0Mk66xgo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2888,116 +2888,116 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="I14" t="n">
-        <v>4.33</v>
-      </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N14" t="n">
         <v>5</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7</v>
-      </c>
       <c r="O14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.62</v>
       </c>
       <c r="W14" t="n">
         <v>5.5</v>
       </c>
       <c r="X14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AD14" t="n">
         <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
         <v>51</v>
@@ -3006,61 +3006,61 @@
         <v>1250</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AS14" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="AX14" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
         <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB14" t="n">
         <v>351</v>
       </c>
       <c r="BC14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0Mk66xgo</t>
+          <t>tYtqElCi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3080,157 +3080,157 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>1.42</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5</v>
+      </c>
+      <c r="X15" t="n">
         <v>5.5</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="Y15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT15" t="n">
         <v>2.5</v>
       </c>
-      <c r="V15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="AU15" t="n">
         <v>11</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>10</v>
       </c>
       <c r="AV15" t="n">
         <v>101</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AY15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ15" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BA15" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BB15" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC15" t="n">
         <v>51</v>
@@ -3242,7 +3242,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tYtqElCi</t>
+          <t>WxUIQ1Rb</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3252,179 +3252,175 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.42</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>8.5</v>
+        <v>2.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG16" t="n">
         <v>8</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="AH16" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN16" t="n">
         <v>5</v>
       </c>
-      <c r="X16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.1</v>
-      </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="AS16" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU16" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AX16" t="n">
         <v>11</v>
       </c>
-      <c r="AV16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>41</v>
-      </c>
       <c r="AY16" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="BA16" t="n">
-        <v>301</v>
+        <v>75</v>
       </c>
       <c r="BB16" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>51</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>WxUIQ1Rb</t>
+          <t>ANuASNdn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3444,340 +3440,162 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Estudiantes Merida</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L17" t="n">
         <v>3.05</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2.22</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.87</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="S17" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="T17" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="U17" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="W17" t="n">
-        <v>9.5</v>
+        <v>7.2</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
         <v>10.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AA17" t="n">
         <v>27</v>
       </c>
       <c r="AB17" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.75</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6.2</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AG17" t="n">
-        <v>8.25</v>
+        <v>6.6</v>
       </c>
       <c r="AH17" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI17" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK17" t="n">
         <v>23</v>
       </c>
-      <c r="AK17" t="n">
-        <v>17</v>
-      </c>
       <c r="AL17" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AR17" t="n">
         <v>120</v>
       </c>
       <c r="AS17" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV17" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AW17" t="n">
         <v>4.15</v>
       </c>
       <c r="AX17" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AZ17" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="BA17" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="BB17" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ANuASNdn</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB18" t="n">
         <v>350</v>
       </c>
-      <c r="BC18" t="n">
+      <c r="BC17" t="n">
         <v>51</v>
       </c>
-      <c r="BD18" t="n">
+      <c r="BD17" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -747,46 +747,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T2" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -795,25 +795,25 @@
         <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -828,16 +828,16 @@
         <v>5.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK2" t="n">
         <v>29</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,10 +846,10 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -876,7 +876,7 @@
         <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -1633,22 +1633,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1675,22 +1675,22 @@
         <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
         <v>19</v>
@@ -1705,40 +1705,40 @@
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH7" t="n">
         <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AN7" t="n">
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
@@ -1753,7 +1753,7 @@
         <v>2.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
@@ -1762,19 +1762,19 @@
         <v>5.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1815,19 +1815,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
         <v>6.5</v>
@@ -1839,22 +1839,22 @@
         <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
         <v>2.2</v>
@@ -1872,7 +1872,7 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
@@ -1881,10 +1881,10 @@
         <v>34</v>
       </c>
       <c r="AC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1893,16 +1893,16 @@
         <v>81</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
@@ -1917,13 +1917,13 @@
         <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1932,16 +1932,16 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX8" t="n">
         <v>34</v>
@@ -2361,40 +2361,40 @@
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.4</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I11" t="n">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="J11" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
         <v>1.5</v>
@@ -2409,49 +2409,49 @@
         <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>34</v>
@@ -2460,19 +2460,19 @@
         <v>351</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
         <v>251</v>
@@ -2487,19 +2487,19 @@
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
         <v>201</v>
@@ -2561,10 +2561,10 @@
         <v>2.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2594,7 +2594,7 @@
         <v>11</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
         <v>15</v>
@@ -2642,7 +2642,7 @@
         <v>351</v>
       </c>
       <c r="AN12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO12" t="n">
         <v>26</v>
@@ -2651,7 +2651,7 @@
         <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR12" t="n">
         <v>126</v>
@@ -2672,7 +2672,7 @@
         <v>3.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
@@ -2907,34 +2907,34 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>1.8</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q14" t="n">
         <v>3.1</v>
@@ -2943,10 +2943,10 @@
         <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="n">
         <v>2.5</v>
@@ -2955,22 +2955,22 @@
         <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y14" t="n">
         <v>11</v>
       </c>
-      <c r="Y14" t="n">
-        <v>12</v>
-      </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
         <v>5</v>
@@ -2979,25 +2979,25 @@
         <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
         <v>101</v>
       </c>
       <c r="AG14" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
         <v>51</v>
@@ -3006,25 +3006,25 @@
         <v>1250</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
         <v>34</v>
       </c>
       <c r="AQ14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS14" t="n">
         <v>351</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU14" t="n">
         <v>10</v>
@@ -3033,19 +3033,19 @@
         <v>101</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY14" t="n">
         <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB14" t="n">
         <v>351</v>
@@ -3089,22 +3089,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
         <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -3170,10 +3170,10 @@
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
         <v>101</v>
@@ -3182,7 +3182,7 @@
         <v>67</v>
       </c>
       <c r="AL15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="n">
         <v>201</v>
@@ -3194,10 +3194,10 @@
         <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
@@ -3215,19 +3215,19 @@
         <v>101</v>
       </c>
       <c r="AW15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY15" t="n">
         <v>51</v>
       </c>
       <c r="AZ15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB15" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -771,10 +771,10 @@
         <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>3.4</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -947,10 +947,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -971,22 +971,22 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -1007,16 +1007,16 @@
         <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>201</v>
@@ -1123,16 +1123,16 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
         <v>3.4</v>
@@ -1141,10 +1141,10 @@
         <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U4" t="n">
         <v>2.75</v>
@@ -2361,13 +2361,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.6</v>
@@ -2379,10 +2379,10 @@
         <v>3.25</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2487,7 +2487,7 @@
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX11" t="n">
         <v>15</v>
@@ -2543,34 +2543,34 @@
         </is>
       </c>
       <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J12" t="n">
         <v>4.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
         <v>2.1</v>
@@ -2585,25 +2585,25 @@
         <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
         <v>15</v>
       </c>
       <c r="Z12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
@@ -2624,16 +2624,16 @@
         <v>6.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>29</v>
@@ -2642,22 +2642,22 @@
         <v>351</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP12" t="n">
         <v>34</v>
       </c>
       <c r="AQ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR12" t="n">
         <v>101</v>
       </c>
-      <c r="AR12" t="n">
-        <v>126</v>
-      </c>
       <c r="AS12" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
         <v>2.63</v>
@@ -2672,19 +2672,19 @@
         <v>3.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2725,28 +2725,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K13" t="n">
         <v>1.95</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.5</v>
@@ -2776,13 +2776,13 @@
         <v>5.5</v>
       </c>
       <c r="X13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
         <v>19</v>
@@ -2794,22 +2794,22 @@
         <v>6.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
         <v>51</v>
@@ -2824,7 +2824,7 @@
         <v>1250</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2854,7 +2854,7 @@
         <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY13" t="n">
         <v>41</v>
@@ -2907,22 +2907,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.13</v>
@@ -2964,7 +2964,7 @@
         <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
         <v>23</v>
@@ -2973,7 +2973,7 @@
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD14" t="n">
         <v>6</v>
@@ -3009,7 +3009,7 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
         <v>34</v>
@@ -3030,19 +3030,19 @@
         <v>10</v>
       </c>
       <c r="AV14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW14" t="n">
         <v>5.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY14" t="n">
         <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA14" t="n">
         <v>151</v>
@@ -3089,28 +3089,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H15" t="n">
         <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.4</v>
@@ -3158,7 +3158,7 @@
         <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE15" t="n">
         <v>29</v>
@@ -3167,13 +3167,13 @@
         <v>126</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
         <v>101</v>
@@ -3182,7 +3182,7 @@
         <v>67</v>
       </c>
       <c r="AL15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM15" t="n">
         <v>201</v>
@@ -3194,10 +3194,10 @@
         <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
@@ -3215,19 +3215,19 @@
         <v>101</v>
       </c>
       <c r="AW15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY15" t="n">
         <v>51</v>
       </c>
       <c r="AZ15" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA15" t="n">
         <v>301</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>351</v>
       </c>
       <c r="BB15" t="n">
         <v>501</v>
@@ -3271,22 +3271,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L16" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
@@ -3295,16 +3295,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S16" t="n">
         <v>1.39</v>
@@ -3319,22 +3319,22 @@
         <v>1.98</v>
       </c>
       <c r="W16" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB16" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC16" t="n">
         <v>10</v>
@@ -3343,46 +3343,46 @@
         <v>6.4</v>
       </c>
       <c r="AE16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>60</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AH16" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI16" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM16" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS16" t="n">
         <v>300</v>
@@ -3391,25 +3391,25 @@
         <v>2.55</v>
       </c>
       <c r="AU16" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV16" t="n">
         <v>60</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB16" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,7 +750,7 @@
         <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
         <v>2.55</v>
@@ -765,16 +765,16 @@
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
         <v>3.4</v>
@@ -849,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -882,13 +882,13 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -965,28 +965,28 @@
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -1007,16 +1007,16 @@
         <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1037,7 +1037,7 @@
         <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1046,7 +1046,7 @@
         <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1426,7 +1426,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fBX7P6kC</t>
+          <t>p8YvIZqB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1436,175 +1436,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GV San Jose</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.44</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>2.32</v>
       </c>
       <c r="J6" t="n">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>2.87</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>5.5</v>
+        <v>2.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="S6" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="T6" t="n">
-        <v>3.75</v>
+        <v>2.47</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="W6" t="n">
         <v>9.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI6" t="n">
         <v>9</v>
       </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>19.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>15.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AQ6" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="AR6" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AS6" t="n">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="AV6" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hxzEOZ0J</t>
+          <t>4MhaUsOk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1614,179 +1618,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.1</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
         <v>6.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
       </c>
       <c r="AM7" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="n">
         <v>351</v>
       </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>f1bLNB0J</t>
+          <t>8j7TZ30S</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1796,41 +1800,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Libertad Asuncion</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1839,136 +1843,136 @@
         <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD8" t="n">
         <v>6.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
         <v>10</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AJ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX8" t="n">
         <v>15</v>
       </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
         <v>81</v>
       </c>
-      <c r="AG8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
+      <c r="BB8" t="n">
         <v>201</v>
       </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>351</v>
-      </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>p8YvIZqB</t>
+          <t>CODKyQVF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1978,167 +1982,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
         <v>3</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="Q9" t="n">
         <v>2.1</v>
       </c>
-      <c r="L9" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.93</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>9</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>11.25</v>
       </c>
       <c r="AI9" t="n">
         <v>9</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
         <v>29</v>
       </c>
       <c r="AM9" t="n">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="AS9" t="n">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2150,7 +2154,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4MhaUsOk</t>
+          <t>KYxHcrE6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2165,42 +2169,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2209,10 +2213,10 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
         <v>1.57</v>
@@ -2221,25 +2225,25 @@
         <v>2.25</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
         <v>15</v>
       </c>
-      <c r="Y10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>41</v>
-      </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2248,91 +2252,91 @@
         <v>6.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM10" t="n">
         <v>1250</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
         <v>67</v>
       </c>
-      <c r="AR10" t="n">
-        <v>101</v>
-      </c>
       <c r="AS10" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
         <v>2.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC10" t="n">
         <v>81</v>
       </c>
-      <c r="BB10" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8j7TZ30S</t>
+          <t>0Mk66xgo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2342,167 +2346,167 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="L11" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="S11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.5</v>
       </c>
-      <c r="T11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH11" t="n">
         <v>17</v>
       </c>
-      <c r="AF11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>11</v>
-      </c>
       <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU11" t="n">
         <v>10</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AV11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX11" t="n">
         <v>23</v>
       </c>
-      <c r="AK11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
+      <c r="AY11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB11" t="n">
         <v>351</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>201</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2514,7 +2518,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CODKyQVF</t>
+          <t>tYtqElCi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2524,167 +2528,167 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>1.42</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.63</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="V12" t="n">
         <v>1.44</v>
       </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA12" t="n">
         <v>15</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="AL12" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AM12" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="AO12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP12" t="n">
         <v>23</v>
       </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="AR12" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2696,7 +2700,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KYxHcrE6</t>
+          <t>WxUIQ1Rb</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2706,179 +2710,175 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1.85</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="S13" t="n">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="T13" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="W13" t="n">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="X13" t="n">
-        <v>7.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>10.25</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>51</v>
+        <v>19.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="AL13" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="AM13" t="n">
-        <v>1250</v>
+        <v>400</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AR13" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="AS13" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV13" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AW13" t="n">
-        <v>6</v>
+        <v>3.95</v>
       </c>
       <c r="AX13" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>41</v>
+        <v>18.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="BA13" t="n">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="BB13" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>81</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0Mk66xgo</t>
+          <t>ANuASNdn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2888,714 +2888,172 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2.2</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3.1</v>
-      </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="U14" t="n">
-        <v>2.5</v>
+        <v>1.93</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="W14" t="n">
-        <v>5</v>
+        <v>7.6</v>
       </c>
       <c r="X14" t="n">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AA14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>23</v>
       </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AK14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY14" t="n">
         <v>23</v>
       </c>
-      <c r="AF14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="BA14" t="n">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="BB14" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>tYtqElCi</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Penarol</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W15" t="n">
-        <v>5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>WxUIQ1Rb</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Estudiantes Merida</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Carabobo</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>40</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>70</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ANuASNdn</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD17" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
         <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
@@ -795,7 +795,7 @@
         <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -804,10 +804,10 @@
         <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -828,13 +828,13 @@
         <v>5.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -846,7 +846,7 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -876,13 +876,13 @@
         <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
@@ -1285,10 +1285,10 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
@@ -1330,7 +1330,7 @@
         <v>4.33</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
@@ -1378,7 +1378,7 @@
         <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
@@ -1405,7 +1405,7 @@
         <v>126</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX5" t="n">
         <v>41</v>
@@ -1637,13 +1637,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1655,16 +1655,16 @@
         <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
         <v>2.5</v>
@@ -1688,16 +1688,16 @@
         <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
         <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1709,13 +1709,13 @@
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH7" t="n">
         <v>10</v>
@@ -1739,7 +1739,7 @@
         <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
         <v>34</v>
@@ -1751,7 +1751,7 @@
         <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT7" t="n">
         <v>2.25</v>
@@ -1760,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
         <v>4.33</v>
@@ -1778,7 +1778,7 @@
         <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -2201,10 +2201,10 @@
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2336,7 +2336,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0Mk66xgo</t>
+          <t>tYtqElCi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2356,157 +2356,157 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="R11" t="n">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W11" t="n">
         <v>5</v>
       </c>
       <c r="X11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>21</v>
-      </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AE11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI11" t="n">
         <v>23</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AJ11" t="n">
         <v>101</v>
       </c>
-      <c r="AG11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="AK11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX11" t="n">
         <v>41</v>
       </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="AY11" t="n">
         <v>51</v>
       </c>
-      <c r="AM11" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="BA11" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BB11" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2518,7 +2518,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tYtqElCi</t>
+          <t>WxUIQ1Rb</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2528,179 +2528,175 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>1.72</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L12" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W12" t="n">
+        <v>13</v>
+      </c>
+      <c r="X12" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH12" t="n">
         <v>8.5</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W12" t="n">
-        <v>5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AI12" t="n">
         <v>8</v>
       </c>
-      <c r="AD12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE12" t="n">
+      <c r="AJ12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP12" t="n">
         <v>29</v>
       </c>
-      <c r="AF12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU12" t="n">
-        <v>11</v>
+        <v>7.1</v>
       </c>
       <c r="AV12" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="AX12" t="n">
-        <v>41</v>
+        <v>8.25</v>
       </c>
       <c r="AY12" t="n">
-        <v>51</v>
+        <v>16.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>301</v>
+        <v>55</v>
       </c>
       <c r="BB12" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>51</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WxUIQ1Rb</t>
+          <t>ANuASNdn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2720,340 +2716,162 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Estudiantes Merida</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L13" t="n">
-        <v>2.65</v>
+        <v>2.92</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI13" t="n">
         <v>9.75</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="AO13" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR13" t="n">
         <v>120</v>
       </c>
       <c r="AS13" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="AX13" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BA13" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BB13" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ANuASNdn</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X14" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB14" t="n">
         <v>350</v>
       </c>
-      <c r="BC14" t="n">
+      <c r="BC13" t="n">
         <v>51</v>
       </c>
-      <c r="BD14" t="n">
+      <c r="BD13" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -965,7 +965,7 @@
         <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
         <v>2.08</v>
@@ -1139,7 +1139,7 @@
         <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
         <v>2.05</v>
@@ -1485,16 +1485,16 @@
         <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
-        <v>4.55</v>
+        <v>4.9</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>10.3</v>
+        <v>13.7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
         <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
         <v>1.39</v>
@@ -1685,103 +1685,103 @@
         <v>2.55</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W7" t="n">
         <v>13.5</v>
       </c>
       <c r="X7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AA7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AH7" t="n">
         <v>8.25</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM7" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AP7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AQ7" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR7" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS7" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV7" t="n">
         <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AY7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BA7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB7" t="n">
         <v>200</v>
@@ -1821,46 +1821,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.15</v>
       </c>
       <c r="I8" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L8" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>6.05</v>
+        <v>8.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
         <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="U8" t="n">
         <v>1.93</v>
@@ -1869,19 +1869,19 @@
         <v>1.7</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="X8" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AB8" t="n">
         <v>45</v>
@@ -1893,25 +1893,25 @@
         <v>6.2</v>
       </c>
       <c r="AE8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>100</v>
       </c>
       <c r="AG8" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AH8" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
         <v>40</v>
@@ -1920,19 +1920,19 @@
         <v>900</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="AO8" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ8" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AR8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS8" t="n">
         <v>350</v>
@@ -1947,19 +1947,19 @@
         <v>75</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="AX8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB8" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,47 +656,47 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-0_HT</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1_HT</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2_HT</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-2_HT</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-0_HT</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-1_HT</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-2_HT</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>v7X2Cujs</t>
+          <t>AczWZULi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,41 +728,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
         <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>1.14</v>
@@ -777,130 +777,122 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
         <v>1.73</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
         <v>101</v>
       </c>
-      <c r="AG2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL2" t="n">
+      <c r="AS2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AX2" t="n">
         <v>51</v>
       </c>
-      <c r="AM2" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AY2" t="n">
         <v>151</v>
       </c>
-      <c r="AS2" t="n">
-        <v>501</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>451</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>126</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AczWZULi</t>
+          <t>fkhqCRTp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +902,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,43 +912,43 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>San Martin T.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>3.4</v>
@@ -965,28 +957,28 @@
         <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>23</v>
@@ -998,40 +990,40 @@
         <v>4.75</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK3" t="n">
         <v>67</v>
       </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="n">
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>34</v>
@@ -1040,32 +1032,34 @@
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS3" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2</v>
+      </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="AV3" t="n">
-        <v>101</v>
+        <v>7.5</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>41</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BA3" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
@@ -1074,7 +1068,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fkhqCRTp</t>
+          <t>p8YvIZqB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1084,173 +1078,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:10</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - PRIMERA NACIONAL</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>San Martin T.</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6</v>
       </c>
-      <c r="J4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AE4" t="n">
         <v>13</v>
       </c>
-      <c r="AA4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AF4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC4" t="n">
         <v>51</v>
       </c>
-      <c r="AC4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY4" t="n">
+      <c r="BD4" t="n">
         <v>51</v>
       </c>
-      <c r="AZ4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>p8YvIZqB</t>
+          <t>tYtqElCi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1260,167 +1260,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
+      <c r="Q5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN5" t="n">
         <v>3.1</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC5" t="n">
+      <c r="AO5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AV5" t="n">
         <v>9</v>
       </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>50</v>
-      </c>
       <c r="AW5" t="n">
-        <v>4.3</v>
+        <v>41</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="AY5" t="n">
-        <v>18.5</v>
+        <v>201</v>
       </c>
       <c r="AZ5" t="n">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="BA5" t="n">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="BB5" t="n">
-        <v>200</v>
+        <v>501</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1432,7 +1432,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tYtqElCi</t>
+          <t>WxUIQ1Rb</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1442,179 +1442,175 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>7</v>
       </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AE6" t="n">
         <v>15</v>
       </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>29</v>
-      </c>
       <c r="AF6" t="n">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>8.25</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>7.9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>101</v>
+        <v>13.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="AM6" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.1</v>
+        <v>6.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>2.62</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>7.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="AV6" t="n">
-        <v>101</v>
+        <v>3.55</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AX6" t="n">
-        <v>41</v>
+        <v>16.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="AZ6" t="n">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="BA6" t="n">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="BB6" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>51</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WxUIQ1Rb</t>
+          <t>ANuASNdn</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1634,340 +1630,162 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Estudiantes Merida</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.7</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.9</v>
-      </c>
       <c r="W7" t="n">
-        <v>13.5</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA7" t="n">
         <v>28</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>45</v>
       </c>
       <c r="AB7" t="n">
         <v>45</v>
       </c>
       <c r="AC7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AH7" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AI7" t="n">
-        <v>7.9</v>
+        <v>9.75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.4</v>
+        <v>4.55</v>
       </c>
       <c r="AO7" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AQ7" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AR7" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AS7" t="n">
-        <v>400</v>
+        <v>2.4</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.62</v>
+        <v>7.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="AV7" t="n">
-        <v>60</v>
+        <v>4.15</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.55</v>
+        <v>12.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>8.25</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
       <c r="AZ7" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="BA7" t="n">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="BB7" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ANuASNdn</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="X8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS8" t="n">
         <v>350</v>
       </c>
-      <c r="AT8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC8" t="n">
+      <c r="BC7" t="n">
         <v>51</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -927,10 +927,10 @@
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
@@ -972,7 +972,7 @@
         <v>4.33</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
@@ -1020,7 +1020,7 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
         <v>11</v>
@@ -1044,7 +1044,7 @@
         <v>126</v>
       </c>
       <c r="AV3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AW3" t="n">
         <v>41</v>
@@ -1429,366 +1429,6 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>WxUIQ1Rb</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Estudiantes Merida</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Carabobo</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>400</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ANuASNdn</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>350</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,16 +765,16 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>3.4</v>
@@ -783,10 +783,10 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U2" t="n">
         <v>2.75</v>
@@ -1247,188 +1247,6 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>tYtqElCi</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Penarol</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -942,13 +942,13 @@
         <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
         <v>3.4</v>
@@ -957,16 +957,16 @@
         <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
         <v>4.33</v>
@@ -981,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
@@ -1056,7 +1056,7 @@
         <v>201</v>
       </c>
       <c r="AZ3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA3" t="n">
         <v>351</v>
@@ -1097,28 +1097,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L4" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -1157,7 +1157,7 @@
         <v>40</v>
       </c>
       <c r="AA4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>32</v>
@@ -1175,7 +1175,7 @@
         <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AH4" t="n">
         <v>11.25</v>
@@ -1187,10 +1187,10 @@
         <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM4" t="n">
         <v>450</v>
@@ -1199,19 +1199,19 @@
         <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR4" t="n">
         <v>90</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AT4" t="n">
         <v>6.4</v>
@@ -1220,22 +1220,22 @@
         <v>50</v>
       </c>
       <c r="AV4" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AY4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AZ4" t="n">
         <v>75</v>
       </c>
       <c r="BA4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB4" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AczWZULi</t>
+          <t>fkhqCRTp</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,31 +738,31 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>San Martin T.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
@@ -771,10 +771,10 @@
         <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
         <v>3.4</v>
@@ -783,10 +783,10 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T2" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U2" t="n">
         <v>2.75</v>
@@ -795,61 +795,61 @@
         <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK2" t="n">
         <v>67</v>
       </c>
-      <c r="AK2" t="n">
-        <v>51</v>
-      </c>
       <c r="AL2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -858,7 +858,7 @@
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>2</v>
@@ -867,24 +867,26 @@
         <v>12</v>
       </c>
       <c r="AU2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AV2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AX2" t="n">
         <v>51</v>
       </c>
       <c r="AY2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AZ2" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA2" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>351</v>
+      </c>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
@@ -892,7 +894,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fkhqCRTp</t>
+          <t>p8YvIZqB</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -902,348 +904,172 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:10</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - PRIMERA NACIONAL</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>San Martin T.</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>3.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS3" t="n">
         <v>2.6</v>
       </c>
-      <c r="K3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AT3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC3" t="n">
         <v>51</v>
       </c>
-      <c r="AC3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>126</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>301</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>p8YvIZqB</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Leones Negros</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
+      <c r="BD3" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -768,13 +768,13 @@
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>3.4</v>
@@ -783,16 +783,16 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W2" t="n">
         <v>4.33</v>
@@ -807,13 +807,13 @@
         <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -882,7 +882,7 @@
         <v>201</v>
       </c>
       <c r="AZ2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BA2" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -753,10 +753,10 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
@@ -768,7 +768,7 @@
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -777,10 +777,10 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
         <v>1.75</v>
@@ -798,7 +798,7 @@
         <v>4.33</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -846,7 +846,7 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -870,7 +870,7 @@
         <v>126</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AW2" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -765,10 +765,10 @@
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -777,10 +777,10 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
         <v>1.75</v>
@@ -923,28 +923,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
         <v>2.07</v>
       </c>
       <c r="L3" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
@@ -953,10 +953,10 @@
         <v>2.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
         <v>1.42</v>
@@ -971,10 +971,10 @@
         <v>1.98</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
         <v>10.5</v>
@@ -1001,16 +1001,16 @@
         <v>60</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AH3" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
         <v>19</v>
@@ -1031,7 +1031,7 @@
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR3" t="n">
         <v>90</v>
@@ -1046,16 +1046,16 @@
         <v>50</v>
       </c>
       <c r="AV3" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AW3" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AX3" t="n">
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AZ3" t="n">
         <v>75</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -753,10 +753,10 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
@@ -765,10 +765,10 @@
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -798,7 +798,7 @@
         <v>4.33</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -846,7 +846,7 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -870,7 +870,7 @@
         <v>126</v>
       </c>
       <c r="AV2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
         <v>41</v>
@@ -944,7 +944,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -759,7 +759,7 @@
         <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
         <v>7</v>
@@ -777,10 +777,10 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
         <v>1.75</v>
@@ -825,7 +825,7 @@
         <v>151</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH2" t="n">
         <v>29</v>
@@ -846,7 +846,7 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -858,13 +858,13 @@
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="n">
         <v>126</v>
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.07</v>
       </c>
       <c r="L3" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
@@ -950,13 +950,13 @@
         <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S3" t="n">
         <v>1.42</v>
@@ -971,19 +971,19 @@
         <v>1.98</v>
       </c>
       <c r="W3" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z3" t="n">
         <v>40</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB3" t="n">
         <v>32</v>
@@ -1007,16 +1007,16 @@
         <v>11.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM3" t="n">
         <v>450</v>
@@ -1025,16 +1025,16 @@
         <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS3" t="n">
         <v>2.6</v>
@@ -1046,19 +1046,19 @@
         <v>50</v>
       </c>
       <c r="AV3" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AW3" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AX3" t="n">
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AZ3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BA3" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -923,40 +923,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
         <v>2.07</v>
       </c>
       <c r="L3" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="Q3" t="n">
         <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
         <v>1.42</v>
@@ -965,70 +965,70 @@
         <v>2.47</v>
       </c>
       <c r="U3" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA3" t="n">
         <v>27</v>
       </c>
       <c r="AB3" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AH3" t="n">
         <v>11.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ3" t="n">
         <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ3" t="n">
         <v>75</v>
@@ -1037,13 +1037,13 @@
         <v>100</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AT3" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AU3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AV3" t="n">
         <v>4.25</v>
@@ -1052,13 +1052,13 @@
         <v>11.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AY3" t="n">
         <v>45</v>
       </c>
       <c r="AZ3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA3" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,39 +596,39 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
-        </is>
-      </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0_HT</t>
@@ -656,47 +656,47 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-2_HT</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-0_HT</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1_HT</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2_HT</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2_HT</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fkhqCRTp</t>
+          <t>p8YvIZqB</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,348 +728,172 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:10</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - PRIMERA NACIONAL</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>San Martin T.</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>2.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>2.42</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>2.95</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W2" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN2" t="n">
         <v>4.75</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="X2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AO2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC2" t="n">
         <v>51</v>
       </c>
-      <c r="AC2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>p8YvIZqB</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>17/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Leones Negros</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W3" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD3" t="n">
+      <c r="BD2" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>p8YvIZqB</t>
+          <t>v7X2Cujs</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,172 +728,4870 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q2" t="n">
         <v>3.1</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.93</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="T2" t="n">
-        <v>2.47</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
-        <v>8.75</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.75</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>451</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ljQBUZqC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AczWZULi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>San Martin S.J.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>All Boys</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>fkhqCRTp</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21:10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>San Martin T.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>fBX7P6kC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Guabira</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6uvINgGP</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Brusque</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>hxzEOZ0J</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chapecoense-SC</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>f1bLNB0J</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nP2aHHPH</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>02:03</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Kyoto</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kashima Antlers</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>x4j32zTI</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LITHUANIA - A LYGA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BE1 NFA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Suduva</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13</v>
+      </c>
+      <c r="X11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>500</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>450</v>
+      </c>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>M7QCc5bd</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Atlante</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>700</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>110</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>p8YvIZqB</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tapatio</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Leones Negros</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
         <v>13.5</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF13" t="n">
         <v>60</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
         <v>500</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AN13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>lfbbVm5m</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Eindhoven FC</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Maastricht</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>11</v>
+      </c>
+      <c r="X14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>67jpeTqR</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NORWAY - OBOS-LIGAEN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lyn</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kongsvinger</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4MhaUsOk</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2 de Mayo</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Olimpia Asuncion</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>8j7TZ30S</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CODKyQVF</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Nacional Asuncion</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W18" t="n">
+        <v>10</v>
+      </c>
+      <c r="X18" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4vIbqhgd</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cadiz CF</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>b1wYci8k</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>301</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>rPTkoEOq</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Dep. La Coruna</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ay5p7eo3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>KYxHcrE6</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4j4zCbVN</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0Mk66xgo</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>tYtqElCi</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>WxUIQ1Rb</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Estudiantes Merida</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Carabobo</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI27" t="n">
         <v>7.9</v>
       </c>
-      <c r="AI2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AJ27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ANuASNdn</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Monagas</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>La Guaira</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X28" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF28" t="n">
         <v>100</v>
       </c>
-      <c r="AS2" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV2" t="n">
+      <c r="AG28" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ28" t="n">
         <v>55</v>
       </c>
-      <c r="AW2" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD2" t="n">
+      <c r="BA28" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD28" t="n">
         <v>51</v>
       </c>
     </row>
